--- a/Excel/ExperimentComplexityResultsGraph_participants.xlsx
+++ b/Excel/ExperimentComplexityResultsGraph_participants.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b6567a7514cabb0/FABIAN DATA/Kyushu 2021/Research/Paper2Complexity/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="964" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3099037-D83F-4298-881E-5777798A235A}"/>
+  <xr:revisionPtr revIDLastSave="1047" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7513C1E7-C39F-46DE-807C-A19BA3891650}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25815" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
+    <workbookView xWindow="3600" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
   </bookViews>
   <sheets>
     <sheet name="MainTable" sheetId="1" r:id="rId1"/>
     <sheet name="ComplexityLvChosenParticipant" sheetId="3" r:id="rId2"/>
-    <sheet name="Complex Perception (2)" sheetId="9" r:id="rId3"/>
-    <sheet name="Complex Perception" sheetId="8" r:id="rId4"/>
-    <sheet name="ComplexLvPerPattern" sheetId="7" r:id="rId5"/>
+    <sheet name="Complex Perception per Lv" sheetId="9" r:id="rId3"/>
+    <sheet name="Complex Perception per Pattern" sheetId="8" r:id="rId4"/>
+    <sheet name="ComplexLvChosen" sheetId="7" r:id="rId5"/>
     <sheet name="ProbabilityGraph" sheetId="2" r:id="rId6"/>
     <sheet name="SurveyTable" sheetId="6" r:id="rId7"/>
     <sheet name="Survey Graphs" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Table1_results" localSheetId="2">Table1[]</definedName>
     <definedName name="Table1_results" localSheetId="3">Table1[]</definedName>
-    <definedName name="Table1_results" localSheetId="2">Table1[]</definedName>
     <definedName name="Table1_results" localSheetId="4">Table1[]</definedName>
     <definedName name="Table1_results">Table1[]</definedName>
+    <definedName name="Table1Results" localSheetId="2">Table1[]</definedName>
     <definedName name="Table1Results" localSheetId="3">Table1[]</definedName>
-    <definedName name="Table1Results" localSheetId="2">Table1[]</definedName>
     <definedName name="Table1Results" localSheetId="4">Table1[]</definedName>
     <definedName name="Table1Results">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="29" r:id="rId10"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
   <si>
     <t>Participant</t>
   </si>
@@ -494,6 +494,24 @@
   <si>
     <t>Complexity level</t>
   </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>AB1</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -660,14 +678,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -676,12 +690,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="92">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -692,7 +707,7 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -701,100 +716,97 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="172" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="171" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -862,6 +874,12 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3996,6 +4014,102 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="85"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="86"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="87"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="88"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="89"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="90"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4093,88 +4207,97 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ComplexityLvChosenParticipant!$A$5:$A$32</c:f>
+              <c:f>ComplexityLvChosenParticipant!$A$5:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>B</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>D</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>H</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>I</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>J</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>K</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>L</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>N</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>O</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>P</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>Q</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>R</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>S</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>T</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>U</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>V</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>W</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>X</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Y</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Z</c:v>
                 </c:pt>
               </c:strCache>
@@ -4182,54 +4305,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComplexityLvChosenParticipant!$B$5:$B$32</c:f>
+              <c:f>ComplexityLvChosenParticipant!$B$5:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="1">
+                <c:ptCount val="30"/>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,16 +4433,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4323,16 +4445,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4345,16 +4457,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4377,6 +4479,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-CF23-415E-AD0F-5F8FF262899D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4384,6 +4508,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0C9A-483A-AFFE-54D91ED4AAE4}"/>
@@ -4418,16 +4552,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000004D-1F5E-4218-8318-00DA9965FC0C}"/>
@@ -4440,16 +4564,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A6D2-4F79-A2A8-E6AEA80B1656}"/>
@@ -4472,6 +4586,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-CF23-415E-AD0F-5F8FF262899D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4479,6 +4615,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-520A-4BCC-BD45-87D28CA27BEF}"/>
@@ -4513,16 +4659,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5F3D-42BB-99FD-7821861ADE17}"/>
@@ -4535,16 +4671,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-520A-4BCC-BD45-87D28CA27BEF}"/>
@@ -4567,6 +4693,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-CF23-415E-AD0F-5F8FF262899D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -4574,11 +4722,38 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0C9A-483A-AFFE-54D91ED4AAE4}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -4605,6 +4780,20 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="26"/>
             <c:marker>
               <c:symbol val="none"/>
@@ -4616,90 +4805,106 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>ComplexityLvChosenParticipant!$A$5:$A$32</c:f>
+              <c:f>ComplexityLvChosenParticipant!$A$5:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>B</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>D</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>H</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>I</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>J</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>K</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>L</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>M</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>N</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>O</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>P</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>Q</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>R</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>S</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>T</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>U</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>V</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>W</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>X</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Y</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Z</c:v>
                 </c:pt>
               </c:strCache>
@@ -4707,90 +4912,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComplexityLvChosenParticipant!$C$5:$C$32</c:f>
+              <c:f>ComplexityLvChosenParticipant!$C$5:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6490,7 +6704,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception (2)!PivotTable1</c:name>
+    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception per Lv!PivotTable1</c:name>
     <c:fmtId val="32"/>
   </c:pivotSource>
   <c:chart>
@@ -8544,23 +8758,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:shade val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="86000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8595,7 +8793,7 @@
           </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -8617,23 +8815,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:tint val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="86000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8668,7 +8850,7 @@
           </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -8690,23 +8872,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:tint val="58000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="58000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8741,7 +8907,7 @@
           </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -8851,7 +9017,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$B$4:$B$5</c:f>
+              <c:f>'Complex Perception per Lv'!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8950,7 +9116,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$A$6:$A$15</c:f>
+              <c:f>'Complex Perception per Lv'!$A$6:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8988,7 +9154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception (2)'!$B$6:$B$15</c:f>
+              <c:f>'Complex Perception per Lv'!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9036,7 +9202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$C$4:$C$5</c:f>
+              <c:f>'Complex Perception per Lv'!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9058,7 +9224,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -9078,7 +9299,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$A$6:$A$15</c:f>
+              <c:f>'Complex Perception per Lv'!$A$6:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9116,36 +9337,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception (2)'!$C$6:$C$15</c:f>
+              <c:f>'Complex Perception per Lv'!$C$6:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.2</c:v>
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
@@ -9164,7 +9385,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$D$4:$D$5</c:f>
+              <c:f>'Complex Perception per Lv'!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9186,7 +9407,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -9206,7 +9482,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$A$6:$A$15</c:f>
+              <c:f>'Complex Perception per Lv'!$A$6:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9244,36 +9520,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception (2)'!$D$6:$D$15</c:f>
+              <c:f>'Complex Perception per Lv'!$D$6:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8</c:v>
+                  <c:v>6.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
@@ -9292,7 +9568,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$E$4:$E$5</c:f>
+              <c:f>'Complex Perception per Lv'!$E$4:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9314,7 +9590,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -9334,7 +9665,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception (2)'!$A$6:$A$15</c:f>
+              <c:f>'Complex Perception per Lv'!$A$6:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -9372,39 +9703,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception (2)'!$E$6:$E$15</c:f>
+              <c:f>'Complex Perception per Lv'!$E$6:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4</c:v>
+                  <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6</c:v>
+                  <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9754,7 +10085,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception!PivotTable1</c:name>
+    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception per Pattern!PivotTable1</c:name>
     <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
@@ -13046,7 +13377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$B$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13127,41 +13458,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$B$5:$B$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13177,7 +13508,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$C$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13258,41 +13589,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$C$5:$C$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13308,7 +13639,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$D$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13389,41 +13720,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$D$5:$D$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13439,7 +13770,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$E$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13520,41 +13851,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$E$5:$E$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13570,7 +13901,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$F$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13651,27 +13982,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$F$5:$F$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13679,13 +14010,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13701,7 +14032,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$G$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13782,41 +14113,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$G$5:$G$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13832,7 +14163,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$H$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13913,27 +14244,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$H$5:$H$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13941,13 +14272,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13963,7 +14294,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$I$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14044,41 +14375,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$I$5:$I$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14094,7 +14425,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$J$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14175,41 +14506,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$J$5:$J$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14225,7 +14556,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$K$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14306,41 +14637,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$K$5:$K$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$K$5:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14592,7 +14923,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception!PivotTable1</c:name>
+    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]Complex Perception per Pattern!PivotTable1</c:name>
     <c:fmtId val="31"/>
   </c:pivotSource>
   <c:chart>
@@ -19064,7 +19395,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$B$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19145,41 +19476,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$B$5:$B$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19195,7 +19526,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$C$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19276,41 +19607,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$C$5:$C$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19326,7 +19657,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$D$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19407,41 +19738,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$D$5:$D$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19457,7 +19788,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$E$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19538,41 +19869,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$E$5:$E$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19588,7 +19919,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$F$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19669,27 +20000,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$F$5:$F$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19697,13 +20028,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19719,7 +20050,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$G$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19800,41 +20131,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$G$5:$G$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19850,7 +20181,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$H$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19931,27 +20262,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$H$5:$H$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19959,13 +20290,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19981,7 +20312,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$I$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20062,41 +20393,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$I$5:$I$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20112,7 +20443,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$J$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20193,41 +20524,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$J$5:$J$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20243,7 +20574,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Complex Perception'!$K$4</c:f>
+              <c:f>'Complex Perception per Pattern'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20324,41 +20655,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception'!$A$5:$A$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Original Ranking</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception'!$K$5:$K$9</c:f>
+              <c:f>'Complex Perception per Pattern'!$K$5:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20610,7 +20941,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]ComplexLvPerPattern!PivotTable1</c:name>
+    <c:name>[ExperimentComplexityResultsGraph_participants.xlsx]ComplexLvChosen!PivotTable1</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -23751,7 +24082,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ComplexLvPerPattern!$B$4</c:f>
+              <c:f>ComplexLvChosen!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23832,9 +24163,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ComplexLvPerPattern!$A$5:$A$9</c:f>
+              <c:f>ComplexLvChosen!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -23843,27 +24174,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComplexLvPerPattern!$B$5:$B$9</c:f>
+              <c:f>ComplexLvChosen!$B$5:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.4</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23895,7 +24223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ComplexLvPerPattern!$C$4</c:f>
+              <c:f>ComplexLvChosen!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23979,9 +24307,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>ComplexLvPerPattern!$A$5:$A$9</c:f>
+              <c:f>ComplexLvChosen!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -23990,30 +24318,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComplexLvPerPattern!$C$5:$C$9</c:f>
+              <c:f>ComplexLvChosen!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8666666666666663</c:v>
+                  <c:v>4.3888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8666666666666663</c:v>
+                  <c:v>4.3888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8666666666666667</c:v>
+                  <c:v>4.3888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24151,7 +24473,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -24385,85 +24707,94 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="33"/>
                   <c:pt idx="0">
-                    <c:v>0.36058949947523566</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.36058949947523566</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.24961437431656069</c:v>
+                    <c:v>0.24605236980918366</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24961437431656069</c:v>
+                    <c:v>0.24605236980918366</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.33561674055906293</c:v>
+                    <c:v>0.38652286562352839</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.2162373299761553</c:v>
+                    <c:v>0.32021893440526095</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.2162373299761553</c:v>
+                    <c:v>0.32021893440526095</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.33561674055906293</c:v>
+                    <c:v>0.38652286562352839</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1504797406915991E-2</c:v>
+                    <c:v>6.590680724167261E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.36058949947523566</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.36058949947523566</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.24961437431656069</c:v>
+                    <c:v>0.24605236980918366</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.36058949947523566</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24961437431656069</c:v>
+                    <c:v>0.24605236980918366</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.3979890137578096</c:v>
+                    <c:v>0.3938655614688667</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>0.13222834107303114</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>2.7731964336435863E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>0.33881721067629245</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>5.3348988789231243E-2</c:v>
+                    <c:v>7.8070262175228125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>7.8070262175228125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>7.8070262175228125E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>7.8070262175228125E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24534,6 +24865,15 @@
                 <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24544,85 +24884,94 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.36058949947523566</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36058949947523566</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24961437431656069</c:v>
+                  <c:v>0.24605236980918366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24961437431656069</c:v>
+                  <c:v>0.24605236980918366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33561674055906293</c:v>
+                  <c:v>0.38652286562352839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2162373299761553</c:v>
+                  <c:v>0.32021893440526095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2162373299761553</c:v>
+                  <c:v>0.32021893440526095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33561674055906293</c:v>
+                  <c:v>0.38652286562352839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1504797406915991E-2</c:v>
+                  <c:v>6.590680724167261E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36058949947523566</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36058949947523566</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24961437431656069</c:v>
+                  <c:v>0.24605236980918366</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36058949947523566</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24961437431656069</c:v>
+                  <c:v>0.24605236980918366</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3979890137578096</c:v>
+                  <c:v>0.3938655614688667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>0.13222834107303114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>2.7731964336435863E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>0.33881721067629245</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3348988789231243E-2</c:v>
+                  <c:v>7.8070262175228125E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8070262175228125E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.8070262175228125E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8070262175228125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25052,34 +25401,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25385,19 +25734,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.48989794855663565</c:v>
+                    <c:v>0.7453559924999299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.7204650534085253</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25409,19 +25758,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.48989794855663565</c:v>
+                    <c:v>0.7453559924999299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.7204650534085253</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25447,19 +25796,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25558,19 +25907,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3564659966250536</c:v>
+                  <c:v>1.5275252316519468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8856180831641267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48989794855663565</c:v>
+                  <c:v>0.7453559924999299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>1.5275252316519468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7204650534085253</c:v>
+                  <c:v>1.8856180831641267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25875,34 +26224,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2649110640673518</c:v>
+                    <c:v>1.3743685418725535</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2649110640673518</c:v>
+                    <c:v>1.6072751268321592</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39999999999999997</c:v>
+                    <c:v>1.4624940645653537</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8973665961010275</c:v>
+                    <c:v>1.7716909687891083</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.247219128924647</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.48989794855663565</c:v>
+                    <c:v>0.7453559924999299</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7204650534085253</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25914,34 +26263,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2649110640673518</c:v>
+                    <c:v>1.3743685418725535</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2649110640673518</c:v>
+                    <c:v>1.6072751268321592</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39999999999999997</c:v>
+                    <c:v>1.4624940645653537</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8973665961010275</c:v>
+                    <c:v>1.7716909687891083</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.247219128924647</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3564659966250536</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.6</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.48989794855663565</c:v>
+                    <c:v>0.7453559924999299</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6</c:v>
+                    <c:v>1.5275252316519468</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.7204650534085253</c:v>
+                    <c:v>1.8856180831641267</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25967,19 +26316,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26078,19 +26427,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2649110640673518</c:v>
+                  <c:v>1.3743685418725535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2649110640673518</c:v>
+                  <c:v>1.6072751268321592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>1.4624940645653537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8973665961010275</c:v>
+                  <c:v>1.7716909687891083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3564659966250536</c:v>
+                  <c:v>1.247219128924647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31553,10 +31902,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45216.39146608796" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{E3B8432B-442A-47AB-AE7C-7CA624C28305}">
   <cacheSource type="worksheet">
@@ -31716,13 +32061,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45216.704535648147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45217.790467592589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="40">
     <cacheField name="Participant" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
       <sharedItems containsBlank="1" count="49">
@@ -31754,10 +32099,10 @@
         <s v="Y"/>
         <s v="Z"/>
         <s v="1A"/>
+        <s v="1B"/>
+        <s v="1C"/>
+        <s v="1D"/>
         <s v="A1" u="1"/>
-        <s v="1B" u="1"/>
-        <s v="1C" u="1"/>
-        <s v="1D" u="1"/>
         <s v="1E" u="1"/>
         <s v="1F" u="1"/>
         <s v="AH" u="1"/>
@@ -31795,7 +32140,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Level Chosen" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
     </cacheField>
     <cacheField name="LV1" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
@@ -31807,16 +32152,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="LV4" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV5" numFmtId="1">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV6" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="7"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV7" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
     </cacheField>
     <cacheField name="LV8" numFmtId="1">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
@@ -31831,19 +32176,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.141999999999999" maxValue="100"/>
     </cacheField>
     <cacheField name="Mean" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8666666666666667" maxValue="3.8666666666666667"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3888888888888893" maxValue="4.3888888888888893"/>
     </cacheField>
     <cacheField name="Standard Deviation" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9275776393067947" maxValue="1.9275776393067947"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4298808587365599" maxValue="2.4298808587365599"/>
     </cacheField>
     <cacheField name="Z-score" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.0059719452116167" maxValue="2.6631006858843871"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.8062156723070508" maxValue="2.3092124418102795"/>
     </cacheField>
     <cacheField name="Probability" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1504797406915991E-2" maxValue="0.3979890137578096"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.7731964336435863E-2" maxValue="0.3938655614688667"/>
     </cacheField>
     <cacheField name="Probability SD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1360024594536037" maxValue="0.1360024594536037"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12764730227735613" maxValue="0.12764730227735613"/>
     </cacheField>
     <cacheField name="Q1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -32793,7 +33138,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
   <r>
     <m/>
     <x v="0"/>
@@ -32813,11 +33158,11 @@
     <n v="9"/>
     <n v="10"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -32855,11 +33200,11 @@
     <n v="2"/>
     <n v="6"/>
     <n v="20.012"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.44961440151294851"/>
-    <n v="0.36058949947523566"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <s v="mathematic student"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -32897,11 +33242,11 @@
     <n v="4"/>
     <n v="2"/>
     <n v="20.012"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.44961440151294851"/>
-    <n v="0.36058949947523566"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -32939,11 +33284,11 @@
     <n v="2"/>
     <n v="4"/>
     <n v="20.012"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.96840024941250458"/>
-    <n v="0.24961437431656069"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.98313004948358462"/>
+    <n v="0.24605236980918366"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -32981,11 +33326,11 @@
     <n v="9"/>
     <n v="8"/>
     <n v="100"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.96840024941250458"/>
-    <n v="0.24961437431656069"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.98313004948358462"/>
+    <n v="0.24605236980918366"/>
+    <n v="0.12764730227735613"/>
     <s v="Computer engineer"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -33023,11 +33368,11 @@
     <n v="9"/>
     <n v="10"/>
     <n v="50.497999999999998"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="0.58795729428616339"/>
-    <n v="0.33561674055906293"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="0.25149838475161446"/>
+    <n v="0.38652286562352839"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33065,11 +33410,11 @@
     <n v="10"/>
     <n v="8"/>
     <n v="97.144000000000005"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="1.1067431421857195"/>
-    <n v="0.2162373299761553"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="0.66304119616334756"/>
+    <n v="0.32021893440526095"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33107,11 +33452,11 @@
     <n v="8"/>
     <n v="10"/>
     <n v="26.998999999999999"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="1.1067431421857195"/>
-    <n v="0.2162373299761553"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="0.66304119616334756"/>
+    <n v="0.32021893440526095"/>
+    <n v="0.12764730227735613"/>
     <s v="University Student"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -33149,11 +33494,11 @@
     <n v="10"/>
     <n v="10"/>
     <n v="18.141999999999999"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="0.58795729428616339"/>
-    <n v="0.33561674055906293"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="0.25149838475161446"/>
+    <n v="0.38652286562352839"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33191,11 +33536,11 @@
     <n v="10"/>
     <n v="8"/>
     <n v="95.465000000000003"/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="2.6631006858843871"/>
-    <n v="1.1504797406915991E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="1.8976696303985465"/>
+    <n v="6.590680724167261E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33233,11 +33578,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.44961440151294851"/>
-    <n v="0.36058949947523566"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <s v="Architect"/>
     <s v="c) 1-5 years"/>
     <s v="Bachelor's degree"/>
@@ -33275,11 +33620,11 @@
     <n v="10"/>
     <n v="8"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.44961440151294851"/>
-    <n v="0.36058949947523566"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33317,11 +33662,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.96840024941250458"/>
-    <n v="0.24961437431656069"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.98313004948358462"/>
+    <n v="0.24605236980918366"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33359,11 +33704,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.44961440151294851"/>
-    <n v="0.36058949947523566"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <s v="Marine biologist"/>
     <s v="a) None"/>
     <s v="Master's degree "/>
@@ -33401,11 +33746,11 @@
     <n v="8"/>
     <n v="10"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-0.96840024941250458"/>
-    <n v="0.24961437431656069"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.98313004948358462"/>
+    <n v="0.24605236980918366"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33443,11 +33788,11 @@
     <n v="10"/>
     <n v="8"/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="6.9171446386607452E-2"/>
-    <n v="0.3979890137578096"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.16004442666011856"/>
+    <n v="0.3938655614688667"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33470,26 +33815,26 @@
     <n v="16"/>
     <x v="16"/>
     <s v="Su Lehan"/>
-    <m/>
-    <s v="Male"/>
+    <s v="AB1"/>
+    <s v="Female"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="1.4861268189868135"/>
+    <n v="0.13222834107303114"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33512,26 +33857,26 @@
     <n v="17"/>
     <x v="17"/>
     <s v="Su Lehan"/>
-    <m/>
-    <s v="Male"/>
+    <s v="AB1"/>
+    <s v="Female"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="2.3092124418102795"/>
+    <n v="2.7731964336435863E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33554,26 +33899,26 @@
     <n v="18"/>
     <x v="18"/>
     <s v="Su Lehan"/>
-    <m/>
-    <s v="Male"/>
+    <s v="AB1"/>
+    <s v="Female"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-0.57158723807185163"/>
+    <n v="0.33881721067629245"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33611,11 +33956,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33653,11 +33998,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33695,11 +34040,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33723,7 +34068,7 @@
     <x v="22"/>
     <s v="Ujjal"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -33737,11 +34082,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33765,7 +34110,7 @@
     <x v="23"/>
     <s v="Ujjal"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -33779,11 +34124,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33807,7 +34152,7 @@
     <x v="24"/>
     <s v="Ujjal"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -33821,11 +34166,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33849,7 +34194,7 @@
     <x v="25"/>
     <s v="Kaneko"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -33863,11 +34208,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33891,7 +34236,7 @@
     <x v="26"/>
     <s v="Kaneko"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -33905,11 +34250,11 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33933,7 +34278,7 @@
     <x v="27"/>
     <s v="Kaneko"/>
     <m/>
-    <m/>
+    <s v="Male"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -33947,11 +34292,137 @@
     <m/>
     <m/>
     <m/>
-    <n v="3.8666666666666667"/>
-    <n v="1.9275776393067947"/>
-    <n v="-2.0059719452116167"/>
-    <n v="5.3348988789231243E-2"/>
-    <n v="0.1360024594536037"/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="1.2649110640673518"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="28"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="1.2649110640673518"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="29"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="1.2649110640673518"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="30"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.3888888888888893"/>
+    <n v="2.4298808587365599"/>
+    <n v="-1.8062156723070508"/>
+    <n v="7.8070262175228125E-2"/>
+    <n v="0.12764730227735613"/>
     <m/>
     <m/>
     <m/>
@@ -33974,16 +34445,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A4:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A4:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="50">
         <item x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="42"/>
@@ -33994,7 +34465,7 @@
         <item m="1" x="37"/>
         <item m="1" x="45"/>
         <item x="1"/>
-        <item m="1" x="28"/>
+        <item m="1" x="31"/>
         <item m="1" x="38"/>
         <item m="1" x="46"/>
         <item m="1" x="39"/>
@@ -34082,9 +34553,18 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="31">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="13"/>
@@ -34186,7 +34666,7 @@
     <dataField name=" Complexity Level Chosen" fld="6" baseField="1" baseItem="2"/>
     <dataField name=" Mean" fld="18" subtotal="average" baseField="1" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <chartFormats count="18">
+  <chartFormats count="24">
     <chartFormat chart="5" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -34394,6 +34874,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="85">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="86">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="87">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="88">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="89">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="90">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -34408,7 +34960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="29" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="A4:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -34528,7 +35080,7 @@
     <dataField name=" LV10" fld="16" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="46">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="9" selected="0">
@@ -34546,7 +35098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -35303,7 +35855,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="A4:K9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -35313,10 +35865,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="5">
-        <item n="Original Ranking" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item n="Original Ranking" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35802,8 +36354,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="A4:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="A4:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
     <pivotField showAll="0" sortType="ascending"/>
@@ -35815,7 +36367,7 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35857,7 +36409,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -35866,9 +36418,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -35886,11 +36435,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name=" Complexity Level Chosen" fld="6" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name=" Mean" fld="18" subtotal="average" baseField="1" baseItem="0" numFmtId="2"/>
+    <dataField name=" Complexity Level Chosen" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="165"/>
+    <dataField name=" Mean" fld="18" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="56">
+  <formats count="3">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -35898,6 +36447,24 @@
           </reference>
           <reference field="5" count="1">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -35972,6 +36539,393 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{953EFD5B-4D67-4279-B0CB-F289088FC3B0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="D4:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="40">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="2" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q2" fld="24" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="24" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="24" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="24" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="24" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D662A22-0AB4-4A23-BBB7-13E49E5086FD}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
@@ -36550,396 +37504,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{953EFD5B-4D67-4279-B0CB-F289088FC3B0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="D4:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="40">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" numFmtId="2" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q2" fld="24" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="24" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="24" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="24" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="24" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN29" totalsRowShown="0" headerRowDxfId="90">
-  <autoFilter ref="A1:AN29" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN32" totalsRowShown="0" headerRowDxfId="91">
+  <autoFilter ref="A1:AN32" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN33">
     <sortCondition ref="A1:A33"/>
   </sortState>
@@ -36950,52 +37517,52 @@
     <tableColumn id="5" xr3:uid="{609E5D5B-A0EA-4531-B592-77507CEBE1C8}" name="Code"/>
     <tableColumn id="10" xr3:uid="{64771C3E-7E16-45EF-A2EE-D25D6C2AE74A}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{62236BB4-55BB-4C73-B959-4C284985000F}" name="Patern"/>
-    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="88"/>
-    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="87"/>
-    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="86"/>
-    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="83"/>
-    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="82"/>
-    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="81"/>
-    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="80"/>
-    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="89"/>
+    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="88"/>
+    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="87"/>
+    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="84"/>
+    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="83"/>
+    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="82"/>
+    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="81"/>
+    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="78">
       <calculatedColumnFormula>AVERAGE(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="76">
+    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="77">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="75">
+    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="76">
       <calculatedColumnFormula>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{25E55D02-3768-4B1F-8F52-59DF71FF8579}" name="Probability" dataCellStyle="Percent">
       <calculatedColumnFormula>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="74">
+    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="75">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Probability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="71"/>
-    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="70"/>
-    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="67"/>
-    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="66"/>
-    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="65"/>
-    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="64"/>
-    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="63"/>
-    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="62"/>
-    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="61"/>
-    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="60"/>
-    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="59"/>
-    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="58">
+    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="68"/>
+    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="66"/>
+    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="65"/>
+    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="64"/>
+    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="63"/>
+    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="62"/>
+    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="61"/>
+    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="60"/>
+    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="59">
       <calculatedColumnFormula array="1">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="57">
+    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="58">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Q6])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -37011,9 +37578,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FB5DF70B-33CC-4975-B87B-DA11AE649F1F}" name="N"/>
-    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37318,27 +37885,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC631591-43A8-4460-8DC2-48580981F06F}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="P11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="6" width="11.1328125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="20" customWidth="1"/>
-    <col min="9" max="17" width="11.140625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="39.5703125" customWidth="1"/>
-    <col min="28" max="28" width="60.85546875" customWidth="1"/>
-    <col min="39" max="40" width="9.140625" style="14"/>
+    <col min="8" max="8" width="15.86328125" style="20" customWidth="1"/>
+    <col min="9" max="17" width="11.1328125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="13.1328125" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" customWidth="1"/>
+    <col min="22" max="23" width="11.265625" customWidth="1"/>
+    <col min="24" max="24" width="39.59765625" customWidth="1"/>
+    <col min="28" max="28" width="60.86328125" customWidth="1"/>
+    <col min="39" max="40" width="9.1328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37460,7 +38027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F2">
         <v>0</v>
       </c>
@@ -37495,52 +38062,38 @@
       <c r="Q2" s="18">
         <v>10</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="T2" s="27">
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="T2" s="26">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
-      </c>
-      <c r="U2" s="27">
+        <v>2.4298808587365599</v>
+      </c>
+      <c r="U2" s="26">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
-      </c>
-      <c r="V2" s="28">
+        <v>-1.8062156723070508</v>
+      </c>
+      <c r="V2" s="27">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W2" s="29">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W2" s="2">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
-      </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="31" cm="1">
+        <v>0.12764730227735613</v>
+      </c>
+      <c r="X2" s="28"/>
+      <c r="AM2" s="29" cm="1">
         <f t="array" ref="AM2">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN2" s="13">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -37597,23 +38150,23 @@
       </c>
       <c r="S3" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T3" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U3" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.44961440151294851</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V3" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.36058949947523566</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W3">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>97</v>
@@ -37662,14 +38215,14 @@
       </c>
       <c r="AM3" s="12" cm="1">
         <f t="array" ref="AM3">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN3" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -37726,35 +38279,35 @@
       </c>
       <c r="S4" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T4" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U4" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.44961440151294851</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V4" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.36058949947523566</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W4">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X4" s="1"/>
       <c r="AM4" s="12" cm="1">
         <f t="array" ref="AM4">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN4" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -37811,35 +38364,35 @@
       </c>
       <c r="S5" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T5" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U5" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.96840024941250458</v>
+        <v>-0.98313004948358462</v>
       </c>
       <c r="V5" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24961437431656069</v>
+        <v>0.24605236980918366</v>
       </c>
       <c r="W5">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X5" s="1"/>
       <c r="AM5" s="12" cm="1">
         <f t="array" ref="AM5">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN5" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -37896,23 +38449,23 @@
       </c>
       <c r="S6" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T6" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U6" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.96840024941250458</v>
+        <v>-0.98313004948358462</v>
       </c>
       <c r="V6" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24961437431656069</v>
+        <v>0.24605236980918366</v>
       </c>
       <c r="W6">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>100</v>
@@ -37961,14 +38514,14 @@
       </c>
       <c r="AM6" s="12" cm="1">
         <f t="array" ref="AM6">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN6" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -38025,35 +38578,35 @@
       </c>
       <c r="S7" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T7" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U7" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.58795729428616339</v>
+        <v>0.25149838475161446</v>
       </c>
       <c r="V7" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33561674055906293</v>
+        <v>0.38652286562352839</v>
       </c>
       <c r="W7">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X7" s="1"/>
       <c r="AM7" s="12" cm="1">
         <f t="array" ref="AM7">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN7" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -38110,23 +38663,23 @@
       </c>
       <c r="S8" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T8" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U8" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.1067431421857195</v>
+        <v>0.66304119616334756</v>
       </c>
       <c r="V8" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.2162373299761553</v>
+        <v>0.32021893440526095</v>
       </c>
       <c r="W8">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -38145,14 +38698,14 @@
       <c r="AL8" s="10"/>
       <c r="AM8" s="12" cm="1">
         <f t="array" ref="AM8">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN8" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -38209,23 +38762,23 @@
       </c>
       <c r="S9" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T9" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U9" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.1067431421857195</v>
+        <v>0.66304119616334756</v>
       </c>
       <c r="V9" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.2162373299761553</v>
+        <v>0.32021893440526095</v>
       </c>
       <c r="W9">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>31</v>
@@ -38274,14 +38827,14 @@
       </c>
       <c r="AM9" s="12" cm="1">
         <f t="array" ref="AM9">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN9" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -38338,23 +38891,23 @@
       </c>
       <c r="S10" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T10" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U10" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.58795729428616339</v>
+        <v>0.25149838475161446</v>
       </c>
       <c r="V10" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33561674055906293</v>
+        <v>0.38652286562352839</v>
       </c>
       <c r="W10">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="9"/>
@@ -38373,14 +38926,14 @@
       <c r="AL10" s="10"/>
       <c r="AM10" s="12" cm="1">
         <f t="array" ref="AM10">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN10" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -38437,35 +38990,35 @@
       </c>
       <c r="S11" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T11" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U11" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>2.6631006858843871</v>
+        <v>1.8976696303985465</v>
       </c>
       <c r="V11" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>1.1504797406915991E-2</v>
+        <v>6.590680724167261E-2</v>
       </c>
       <c r="W11">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X11" s="1"/>
       <c r="AM11" s="12" cm="1">
         <f t="array" ref="AM11">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN11" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -38499,44 +39052,44 @@
       <c r="K12" s="23">
         <v>4</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="23">
         <v>6</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="23">
         <v>5</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="23">
         <v>7</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="23">
         <v>10</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="23">
         <v>9</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="23">
         <v>8</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T12" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U12" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.44961440151294851</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V12" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.36058949947523566</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W12">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>32</v>
@@ -38585,14 +39138,14 @@
       </c>
       <c r="AM12" s="12" cm="1">
         <f t="array" ref="AM12">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN12" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -38614,7 +39167,7 @@
       <c r="G13" s="16">
         <v>3</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>1</v>
       </c>
       <c r="I13" s="23">
@@ -38626,56 +39179,56 @@
       <c r="K13" s="23">
         <v>4</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="23">
         <v>6</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="23">
         <v>5</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="23">
         <v>7</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="23">
         <v>9</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="23">
         <v>10</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="23">
         <v>8</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T13" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U13" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.44961440151294851</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V13" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.36058949947523566</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W13">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X13" s="1"/>
       <c r="AM13" s="12" cm="1">
         <f t="array" ref="AM13">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN13" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -38697,7 +39250,7 @@
       <c r="G14" s="16">
         <v>2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>1</v>
       </c>
       <c r="I14" s="23">
@@ -38709,56 +39262,56 @@
       <c r="K14" s="23">
         <v>4</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="23">
         <v>7</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="23">
         <v>5</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="23">
         <v>6</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="23">
         <v>10</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="23">
         <v>9</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="23">
         <v>8</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T14" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U14" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.96840024941250458</v>
+        <v>-0.98313004948358462</v>
       </c>
       <c r="V14" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24961437431656069</v>
+        <v>0.24605236980918366</v>
       </c>
       <c r="W14">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X14" s="1"/>
       <c r="AM14" s="12" cm="1">
         <f t="array" ref="AM14">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN14" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="39.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -38780,7 +39333,7 @@
       <c r="G15" s="16">
         <v>3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>1</v>
       </c>
       <c r="I15" s="23">
@@ -38792,44 +39345,44 @@
       <c r="K15" s="23">
         <v>4</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="23">
         <v>6</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="23">
         <v>5</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="23">
         <v>7</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="23">
         <v>10</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="23">
         <v>9</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="23">
         <v>8</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T15" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U15" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.44961440151294851</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V15" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.36058949947523566</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W15">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>116</v>
@@ -38878,14 +39431,14 @@
       </c>
       <c r="AM15" s="12" cm="1">
         <f t="array" ref="AM15">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN15" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -38907,7 +39460,7 @@
       <c r="G16" s="17">
         <v>2</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>1</v>
       </c>
       <c r="I16" s="23">
@@ -38919,56 +39472,56 @@
       <c r="K16" s="23">
         <v>4</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="23">
         <v>6</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="23">
         <v>5</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="23">
         <v>7</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="23">
         <v>9</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="23">
         <v>8</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="23">
         <v>10</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T16" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U16" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.96840024941250458</v>
+        <v>-0.98313004948358462</v>
       </c>
       <c r="V16" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24961437431656069</v>
+        <v>0.24605236980918366</v>
       </c>
       <c r="W16">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X16" s="1"/>
       <c r="AM16" s="12" cm="1">
         <f t="array" ref="AM16">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN16" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -38990,7 +39543,7 @@
       <c r="G17" s="16">
         <v>4</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>1</v>
       </c>
       <c r="I17" s="23">
@@ -39002,56 +39555,56 @@
       <c r="K17" s="23">
         <v>4</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="23">
         <v>5</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="23">
         <v>6</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="23">
         <v>7</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="23">
         <v>9</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="23">
         <v>10</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="23">
         <v>8</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T17" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U17" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>6.9171446386607452E-2</v>
+        <v>-0.16004442666011856</v>
       </c>
       <c r="V17" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.3979890137578096</v>
+        <v>0.3938655614688667</v>
       </c>
       <c r="W17">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X17" s="1"/>
       <c r="AM17" s="12" cm="1">
         <f t="array" ref="AM17">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN17" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -39061,55 +39614,124 @@
       <c r="C18" t="s">
         <v>111</v>
       </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="G18" s="16">
+        <v>8</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
+      <c r="J18" s="23">
+        <v>3</v>
+      </c>
+      <c r="K18" s="23">
+        <v>5</v>
+      </c>
+      <c r="L18" s="23">
+        <v>6</v>
+      </c>
+      <c r="M18" s="23">
+        <v>4</v>
+      </c>
+      <c r="N18" s="23">
+        <v>7</v>
+      </c>
+      <c r="O18" s="23">
+        <v>10</v>
+      </c>
+      <c r="P18" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>8</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T18" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U18" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>1.4861268189868135</v>
       </c>
       <c r="V18" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>0.13222834107303114</v>
       </c>
       <c r="W18">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
-      </c>
-      <c r="X18" s="1"/>
+        <v>0.12764730227735613</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>2</v>
+      </c>
       <c r="AM18" s="12" cm="1">
         <f t="array" ref="AM18">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN18" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -39119,55 +39741,80 @@
       <c r="C19" t="s">
         <v>111</v>
       </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="G19" s="16">
+        <v>10</v>
+      </c>
+      <c r="H19" s="20">
+        <v>4</v>
+      </c>
+      <c r="I19" s="23">
+        <v>5</v>
+      </c>
+      <c r="J19" s="23">
+        <v>6</v>
+      </c>
+      <c r="K19" s="23">
+        <v>3</v>
+      </c>
+      <c r="L19" s="23">
+        <v>2</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1</v>
+      </c>
+      <c r="N19" s="23">
+        <v>7</v>
+      </c>
+      <c r="O19" s="23">
+        <v>8</v>
+      </c>
+      <c r="P19" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>8</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T19" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U19" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>2.3092124418102795</v>
       </c>
       <c r="V19" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>2.7731964336435863E-2</v>
       </c>
       <c r="W19">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X19" s="1"/>
       <c r="AM19" s="12" cm="1">
         <f t="array" ref="AM19">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN19" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -39177,55 +39824,80 @@
       <c r="C20" t="s">
         <v>111</v>
       </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="G20" s="16">
+        <v>3</v>
+      </c>
+      <c r="H20" s="20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="23">
+        <v>6</v>
+      </c>
+      <c r="J20" s="23">
+        <v>4</v>
+      </c>
+      <c r="K20" s="23">
+        <v>7</v>
+      </c>
+      <c r="L20" s="23">
+        <v>3</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1</v>
+      </c>
+      <c r="N20" s="23">
+        <v>2</v>
+      </c>
+      <c r="O20" s="23">
+        <v>9</v>
+      </c>
+      <c r="P20" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>8</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T20" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U20" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-0.57158723807185163</v>
       </c>
       <c r="V20" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>0.33881721067629245</v>
       </c>
       <c r="W20">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X20" s="1"/>
       <c r="AM20" s="12" cm="1">
         <f t="array" ref="AM20">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN20" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -39242,7 +39914,6 @@
         <v>1</v>
       </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="22"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -39255,35 +39926,35 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T21" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U21" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V21" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>7.8070262175228125E-2</v>
       </c>
       <c r="W21">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X21" s="1"/>
       <c r="AM21" s="12" cm="1">
         <f t="array" ref="AM21">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN21" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -39300,7 +39971,6 @@
         <v>2</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="22"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -39313,35 +39983,35 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T22" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U22" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V22" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>7.8070262175228125E-2</v>
       </c>
       <c r="W22">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X22" s="1"/>
       <c r="AM22" s="12" cm="1">
         <f t="array" ref="AM22">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN22" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -39358,7 +40028,6 @@
         <v>3</v>
       </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="22"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -39371,35 +40040,35 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T23" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U23" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V23" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
+        <v>7.8070262175228125E-2</v>
       </c>
       <c r="W23">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X23" s="1"/>
       <c r="AM23" s="12" cm="1">
         <f t="array" ref="AM23">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN23" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -39409,11 +40078,13 @@
       <c r="C24" t="s">
         <v>120</v>
       </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="22"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -39426,49 +40097,35 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T24" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U24" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V24" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W24" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W24">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X24" s="1"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
       <c r="AM24" s="12" cm="1">
         <f t="array" ref="AM24">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN24" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -39478,11 +40135,13 @@
       <c r="C25" t="s">
         <v>120</v>
       </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="22"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -39495,49 +40154,35 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T25" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U25" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V25" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W25" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W25">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X25" s="1"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
       <c r="AM25" s="12" cm="1">
         <f t="array" ref="AM25">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN25" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -39547,11 +40192,13 @@
       <c r="C26" t="s">
         <v>120</v>
       </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="22"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -39564,49 +40211,35 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T26" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U26" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V26" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W26" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W26">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X26" s="1"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
       <c r="AM26" s="12" cm="1">
         <f t="array" ref="AM26">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN26" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -39616,11 +40249,13 @@
       <c r="C27" t="s">
         <v>121</v>
       </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="22"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
@@ -39633,49 +40268,35 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T27" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U27" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V27" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W27" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W27">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X27" s="1"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
       <c r="AM27" s="12" cm="1">
         <f t="array" ref="AM27">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN27" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -39685,11 +40306,13 @@
       <c r="C28" t="s">
         <v>121</v>
       </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="22"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -39702,49 +40325,35 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T28" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U28" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V28" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W28" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W28">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X28" s="1"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
       <c r="AM28" s="12" cm="1">
         <f t="array" ref="AM28">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN28" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -39754,11 +40363,13 @@
       <c r="C29" t="s">
         <v>121</v>
       </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="22"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -39771,54 +40382,54 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="T29" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>1.9275776393067947</v>
+        <v>2.4298808587365599</v>
       </c>
       <c r="U29" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.0059719452116167</v>
+        <v>-1.8062156723070508</v>
       </c>
       <c r="V29" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.3348988789231243E-2</v>
-      </c>
-      <c r="W29" s="26">
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W29">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.1360024594536037</v>
+        <v>0.12764730227735613</v>
       </c>
       <c r="X29" s="1"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
       <c r="AM29" s="12" cm="1">
         <f t="array" ref="AM29">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AN29" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
@@ -39826,18 +40437,56 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="8"/>
+      <c r="S30" s="3">
+        <f>AVERAGE(Table1[Level Chosen])</f>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="T30" s="3">
+        <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
+        <v>2.4298808587365599</v>
+      </c>
+      <c r="U30" s="3">
+        <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
+        <v>-1.8062156723070508</v>
+      </c>
+      <c r="V30" s="8">
+        <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W30">
+        <f>_xlfn.STDEV.P(Table1[Probability])</f>
+        <v>0.12764730227735613</v>
+      </c>
       <c r="X30" s="1"/>
+      <c r="AM30" s="12" cm="1">
+        <f t="array" ref="AM30">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AN30" s="14">
+        <f>_xlfn.STDEV.P(Table1[Q6])</f>
+        <v>1.3743685418725535</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
@@ -39845,18 +40494,56 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="8"/>
+      <c r="S31" s="3">
+        <f>AVERAGE(Table1[Level Chosen])</f>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="T31" s="3">
+        <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
+        <v>2.4298808587365599</v>
+      </c>
+      <c r="U31" s="3">
+        <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
+        <v>-1.8062156723070508</v>
+      </c>
+      <c r="V31" s="8">
+        <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W31">
+        <f>_xlfn.STDEV.P(Table1[Probability])</f>
+        <v>0.12764730227735613</v>
+      </c>
       <c r="X31" s="1"/>
+      <c r="AM31" s="12" cm="1">
+        <f t="array" ref="AM31">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AN31" s="14">
+        <f>_xlfn.STDEV.P(Table1[Q6])</f>
+        <v>1.3743685418725535</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -39864,13 +40551,37 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="8"/>
+      <c r="S32" s="3">
+        <f>AVERAGE(Table1[Level Chosen])</f>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="T32" s="3">
+        <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
+        <v>2.4298808587365599</v>
+      </c>
+      <c r="U32" s="3">
+        <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
+        <v>-1.8062156723070508</v>
+      </c>
+      <c r="V32" s="8">
+        <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
+        <v>7.8070262175228125E-2</v>
+      </c>
+      <c r="W32">
+        <f>_xlfn.STDEV.P(Table1[Probability])</f>
+        <v>0.12764730227735613</v>
+      </c>
       <c r="X32" s="1"/>
+      <c r="AM32" s="12" cm="1">
+        <f t="array" ref="AM32">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AN32" s="14">
+        <f>_xlfn.STDEV.P(Table1[Q6])</f>
+        <v>1.3743685418725535</v>
+      </c>
     </row>
-    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -39901,29 +40612,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AFC022-F449-4E99-B675-6841F6ED2E88}">
-  <dimension ref="A2:V32"/>
+  <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -39931,7 +40642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -39942,291 +40653,322 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3">
-        <v>3.8666666666666667</v>
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="3">
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="3">
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="3">
+        <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B9" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C9" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B10" s="30">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C10" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C11" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B12" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C12" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B13" s="30">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C13" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B14" s="30">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C14" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B15" s="30">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C15" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B16" s="30">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C16" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B17" s="30">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C17" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B18" s="30">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C18" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B19" s="30">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>3.8666666666666667</v>
-      </c>
+      <c r="C19" s="3">
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="V19" s="15"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B20" s="30">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C20" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C21" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B22" s="30">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>51</v>
+      <c r="C22" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B23" s="30">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
-        <v>3.8666666666666667</v>
+      <c r="C23" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B24" s="30">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B25" s="30">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B26" s="30">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B27" s="30"/>
+      <c r="C27" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B28" s="30"/>
+      <c r="C28" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B30" s="30"/>
+      <c r="C30" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B31" s="30"/>
+      <c r="C31" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B32" s="30"/>
+      <c r="C32" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B33" s="30"/>
+      <c r="C33" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="3">
-        <v>3.8666666666666667</v>
+      <c r="B34" s="30"/>
+      <c r="C34" s="3">
+        <v>4.3888888888888893</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="26">
-        <v>58</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3.866666666666664</v>
+      <c r="B35" s="30">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.3888888888888866</v>
       </c>
     </row>
   </sheetData>
@@ -40240,33 +40982,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB671AC-148A-4EFA-9908-CB823669481E}">
   <dimension ref="A4:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>137</v>
       </c>
@@ -40286,7 +41029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -40294,19 +41037,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>3.2</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="D6" s="14">
-        <v>2.6</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E6" s="14">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="14">
-        <v>2.6875</v>
+        <v>2.7894736842105261</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -40314,19 +41057,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="14">
-        <v>3.6</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="D7" s="14">
-        <v>3.6</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="E7" s="14">
-        <v>3.8</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F7" s="14">
-        <v>3.5625</v>
+        <v>3.6842105263157894</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -40334,19 +41077,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="14">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="F8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3.9375</v>
-      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -40354,19 +41097,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="14">
-        <v>3.4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D9" s="14">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="E9" s="14">
-        <v>4.4000000000000004</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="F9" s="14">
-        <v>4.1875</v>
+        <v>4.3157894736842106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -40374,19 +41117,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="14">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E10" s="14">
-        <v>5.2</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="F10" s="14">
-        <v>4.8125</v>
+        <v>4.6315789473684212</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -40394,19 +41137,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="14">
-        <v>5.4</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D11" s="14">
-        <v>5.6</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="E11" s="14">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="14">
-        <v>5.625</v>
+        <v>5.0526315789473681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -40417,16 +41160,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="14">
-        <v>6.8</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="E12" s="14">
-        <v>6.4</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F12" s="14">
-        <v>6.75</v>
+        <v>6.5263157894736841</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -40434,19 +41177,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="14">
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D13" s="14">
-        <v>7.2</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="E13" s="14">
-        <v>7.6</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="F13" s="14">
-        <v>7.625</v>
+        <v>7.8421052631578947</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -40454,19 +41197,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="14">
-        <v>7.4</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D14" s="14">
-        <v>8.1999999999999993</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E14" s="14">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F14" s="14">
-        <v>8</v>
+        <v>8.2105263157894743</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -40480,13 +41223,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="14">
-        <v>7.2</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="F15" s="14">
-        <v>7.875</v>
+        <v>7.8947368421052628</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15" t="s">
         <v>51</v>
       </c>
@@ -40503,24 +41246,24 @@
   <dimension ref="A4:V19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -40555,193 +41298,182 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>136</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>1</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="C5" s="14">
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="D5" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="14">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F5" s="14">
         <v>5</v>
       </c>
       <c r="G5" s="14">
-        <v>6</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="H5" s="14">
         <v>7</v>
       </c>
       <c r="I5" s="14">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J5" s="14">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="K5" s="14">
         <v>8</v>
       </c>
-      <c r="J5" s="14">
-        <v>9</v>
-      </c>
-      <c r="K5" s="14">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>3.2</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="C6" s="14">
-        <v>3.6</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="D6" s="14">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E6" s="14">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="F6" s="14">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
-        <v>5.4</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H6" s="14">
-        <v>7</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I6" s="14">
-        <v>8</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J6" s="14">
-        <v>7.4</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K6" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I7" s="14">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="C7" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="I7" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="F8" s="14">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14">
+        <v>7</v>
+      </c>
+      <c r="I8" s="14">
         <v>8</v>
       </c>
+      <c r="J8" s="14">
+        <v>9</v>
+      </c>
+      <c r="K8" s="14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5.2</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5.8</v>
-      </c>
-      <c r="H8" s="14">
-        <v>6.4</v>
-      </c>
-      <c r="I8" s="14">
-        <v>7.6</v>
-      </c>
-      <c r="J8" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K8" s="14">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="14">
-        <v>2.6875</v>
+        <v>2.7894736842105261</v>
       </c>
       <c r="C9" s="14">
-        <v>3.5625</v>
+        <v>3.6842105263157894</v>
       </c>
       <c r="D9" s="14">
-        <v>3.9375</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14">
-        <v>4.1875</v>
+        <v>4.3157894736842106</v>
       </c>
       <c r="F9" s="14">
-        <v>4.8125</v>
+        <v>4.6315789473684212</v>
       </c>
       <c r="G9" s="14">
-        <v>5.625</v>
+        <v>5.0526315789473681</v>
       </c>
       <c r="H9" s="14">
-        <v>6.75</v>
+        <v>6.5263157894736841</v>
       </c>
       <c r="I9" s="14">
-        <v>7.625</v>
+        <v>7.8421052631578947</v>
       </c>
       <c r="J9" s="14">
-        <v>8</v>
+        <v>8.2105263157894743</v>
       </c>
       <c r="K9" s="14">
-        <v>7.875</v>
+        <v>7.8947368421052628</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15" t="s">
         <v>51</v>
       </c>
@@ -40757,27 +41489,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77688FF9-83D1-47C2-9C23-BC9A0657EFC1}">
   <dimension ref="A4:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -40788,60 +41520,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
-        <v>3.4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.8666666666666663</v>
+      <c r="B5" s="14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4.3888888888888884</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="26">
-        <v>3.6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.8666666666666663</v>
+      <c r="B6" s="14">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4.3888888888888884</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.8666666666666663</v>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4.3888888888888884</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="3">
-        <v>3.8666666666666667</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4.3888888888888866</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="26">
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.866666666666664</v>
-      </c>
-    </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15" t="s">
         <v>51</v>
       </c>
@@ -40861,7 +41584,7 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40872,17 +41595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C0701-B297-43BE-9ECC-5A85FAD92B43}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -40896,7 +41619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>6</v>
       </c>
@@ -40905,14 +41628,14 @@
       </c>
       <c r="C2" s="14" cm="1">
         <f t="array" ref="C2">AVERAGE(IF(Table1[Q6]&lt;&gt;"",Table1[Q6]))</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D2" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.2649110640673518</v>
+        <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>7</v>
       </c>
@@ -40921,14 +41644,14 @@
       </c>
       <c r="C3" s="14">
         <f>AVERAGE(Table1[Q7])</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="14">
         <f>_xlfn.STDEV.P(Table1[Q7])</f>
-        <v>1.2649110640673518</v>
+        <v>1.6072751268321592</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>8</v>
       </c>
@@ -40937,14 +41660,14 @@
       </c>
       <c r="C4" s="14">
         <f>AVERAGE(Table1[Q8])</f>
-        <v>5.8</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D4" s="14">
         <f>_xlfn.STDEV.P(Table1[Q8])</f>
-        <v>0.39999999999999997</v>
+        <v>1.4624940645653537</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9</v>
       </c>
@@ -40953,14 +41676,14 @@
       </c>
       <c r="C5" s="14">
         <f>AVERAGE(Table1[Q9])</f>
-        <v>4</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="D5" s="14">
         <f>_xlfn.STDEV.P(Table1[Q9])</f>
-        <v>1.8973665961010275</v>
+        <v>1.7716909687891083</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -40969,14 +41692,14 @@
       </c>
       <c r="C6" s="14">
         <f>AVERAGE(Table1[Q10])</f>
-        <v>5.4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D6" s="14">
         <f>_xlfn.STDEV.P(Table1[Q10])</f>
-        <v>1.3564659966250536</v>
+        <v>1.247219128924647</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>11</v>
       </c>
@@ -40985,14 +41708,14 @@
       </c>
       <c r="C7" s="14">
         <f>AVERAGE(Table1[Q11])</f>
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="14">
         <f>_xlfn.STDEV.P(Table1[Q11])</f>
-        <v>1.3564659966250536</v>
+        <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12</v>
       </c>
@@ -41001,14 +41724,14 @@
       </c>
       <c r="C8" s="14">
         <f>AVERAGE(Table1[Q12])</f>
-        <v>5.2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8" s="14">
         <f>_xlfn.STDEV.P(Table1[Q12])</f>
-        <v>1.6</v>
+        <v>1.8856180831641267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>13</v>
       </c>
@@ -41017,14 +41740,14 @@
       </c>
       <c r="C9" s="14">
         <f>AVERAGE(Table1[Q13])</f>
-        <v>6.6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D9" s="14">
         <f>_xlfn.STDEV.P(Table1[Q13])</f>
-        <v>0.48989794855663565</v>
+        <v>0.7453559924999299</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>14</v>
       </c>
@@ -41033,14 +41756,14 @@
       </c>
       <c r="C10" s="14">
         <f>AVERAGE(Table1[Q14])</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="14">
         <f>_xlfn.STDEV.P(Table1[Q14])</f>
-        <v>1.6</v>
+        <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>15</v>
       </c>
@@ -41049,11 +41772,11 @@
       </c>
       <c r="C11" s="14">
         <f>AVERAGE(Table1[Q15])</f>
-        <v>4.8</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D11" s="14">
         <f>_xlfn.STDEV.P(Table1[Q15])</f>
-        <v>1.7204650534085253</v>
+        <v>1.8856180831641267</v>
       </c>
     </row>
   </sheetData>
@@ -41074,20 +41797,20 @@
       <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -41101,7 +41824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -41115,7 +41838,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -41129,7 +41852,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -41137,7 +41860,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>97</v>
       </c>

--- a/Excel/ExperimentComplexityResultsGraph_participants.xlsx
+++ b/Excel/ExperimentComplexityResultsGraph_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b6567a7514cabb0/FABIAN DATA/Kyushu 2021/Research/Paper2Complexity/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E098F91-10A4-4D5D-9A0C-C666B88B0749}"/>
+  <xr:revisionPtr revIDLastSave="1199" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4376A-0536-4B4A-8440-1884492AEDE6}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
   </bookViews>
   <sheets>
     <sheet name="MainTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>Participant</t>
   </si>
@@ -512,6 +512,9 @@
   <si>
     <t>Material Engineer</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Original Ranking</t>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,12 +693,68 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="61">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -3136,7 +3195,7 @@
       <c:pivotFmt>
         <c:idx val="58"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3301,7 +3360,7 @@
       <c:pivotFmt>
         <c:idx val="60"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3376,7 +3435,7 @@
       <c:pivotFmt>
         <c:idx val="62"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3392,7 +3451,7 @@
       <c:pivotFmt>
         <c:idx val="63"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3408,7 +3467,7 @@
       <c:pivotFmt>
         <c:idx val="64"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3424,7 +3483,7 @@
       <c:pivotFmt>
         <c:idx val="65"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3741,7 +3800,7 @@
       <c:pivotFmt>
         <c:idx val="77"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3757,7 +3816,7 @@
       <c:pivotFmt>
         <c:idx val="78"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3773,7 +3832,7 @@
       <c:pivotFmt>
         <c:idx val="79"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3789,7 +3848,7 @@
       <c:pivotFmt>
         <c:idx val="80"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3805,7 +3864,7 @@
       <c:pivotFmt>
         <c:idx val="81"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3821,7 +3880,7 @@
       <c:pivotFmt>
         <c:idx val="82"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3837,7 +3896,7 @@
       <c:pivotFmt>
         <c:idx val="83"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3853,7 +3912,7 @@
       <c:pivotFmt>
         <c:idx val="84"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3869,7 +3928,7 @@
       <c:pivotFmt>
         <c:idx val="85"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3885,7 +3944,7 @@
       <c:pivotFmt>
         <c:idx val="86"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3901,7 +3960,7 @@
       <c:pivotFmt>
         <c:idx val="87"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3917,7 +3976,7 @@
       <c:pivotFmt>
         <c:idx val="88"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3933,7 +3992,7 @@
       <c:pivotFmt>
         <c:idx val="89"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3949,7 +4008,7 @@
       <c:pivotFmt>
         <c:idx val="90"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3965,7 +4024,7 @@
       <c:pivotFmt>
         <c:idx val="91"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3981,7 +4040,7 @@
       <c:pivotFmt>
         <c:idx val="92"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -3997,7 +4056,7 @@
       <c:pivotFmt>
         <c:idx val="93"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -4013,7 +4072,7 @@
       <c:pivotFmt>
         <c:idx val="94"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -4029,7 +4088,7 @@
       <c:pivotFmt>
         <c:idx val="95"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -4045,7 +4104,7 @@
       <c:pivotFmt>
         <c:idx val="96"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -4061,7 +4120,7 @@
       <c:pivotFmt>
         <c:idx val="97"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="50800" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
@@ -4273,6 +4332,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4326,6 +4397,30 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,7 +4462,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
@@ -4385,6 +4480,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4397,6 +4502,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4409,6 +4524,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4421,6 +4546,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-8FA3-4171-B37E-C4766120F67C}"/>
@@ -4434,7 +4569,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4456,7 +4591,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4478,7 +4613,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4500,7 +4635,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4521,6 +4656,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000004D-1F5E-4218-8318-00DA9965FC0C}"/>
@@ -4533,6 +4678,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A6D2-4F79-A2A8-E6AEA80B1656}"/>
@@ -4546,7 +4701,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4568,7 +4723,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4590,7 +4745,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4612,7 +4767,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4633,6 +4788,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5F3D-42BB-99FD-7821861ADE17}"/>
@@ -4645,6 +4810,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-520A-4BCC-BD45-87D28CA27BEF}"/>
@@ -4658,7 +4833,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4680,7 +4855,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4702,7 +4877,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4724,7 +4899,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="28575" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -4745,6 +4920,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0404-491B-BA1B-223ACC991489}"/>
@@ -4757,6 +4942,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0404-491B-BA1B-223ACC991489}"/>
@@ -4769,6 +4964,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000022-E1DC-44D7-A0AE-15ABAD2447CC}"/>
@@ -4781,6 +4986,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000023-E1DC-44D7-A0AE-15ABAD2447CC}"/>
@@ -4793,6 +5008,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-DCE1-4B57-9714-27660BA5732E}"/>
@@ -4805,6 +5030,16 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000025-E1DC-44D7-A0AE-15ABAD2447CC}"/>
@@ -4916,94 +5151,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5042,7 +5277,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5055,14 +5290,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
                   <a:t>Partipants</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
                   <a:t> ID</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5070,8 +5305,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47045454331508441"/>
-              <c:y val="0.62993411139074018"/>
+              <c:x val="0.44644701364773726"/>
+              <c:y val="0.8623199804306666"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5087,7 +5322,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5125,7 +5360,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5151,6 +5386,7 @@
         <c:axId val="1258729120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5170,7 +5406,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5188,6 +5424,7 @@
         <c:crossAx val="1258731040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5203,9 +5440,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31997267537510954"/>
-          <c:y val="0.77972244033362303"/>
-          <c:w val="0.42871852769622354"/>
+          <c:x val="0.13191373929349848"/>
+          <c:y val="0.89999223133417527"/>
+          <c:w val="0.78482995936365585"/>
           <c:h val="6.5148491530299169E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5222,7 +5459,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8469,7 +8706,7 @@
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8652,7 +8889,7 @@
                   <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8835,7 +9072,7 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9077,6 +9314,7 @@
         <c:crossAx val="1258731040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -14328,9 +14566,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14339,16 +14577,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$B$5:$B$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.8333333333333335</c:v>
                 </c:pt>
@@ -14357,6 +14598,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14453,9 +14697,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14464,16 +14708,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$C$5:$C$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.3333333333333335</c:v>
                 </c:pt>
@@ -14482,6 +14729,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14578,9 +14828,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14589,16 +14839,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$D$5:$D$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -14607,6 +14860,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14703,9 +14959,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14714,16 +14970,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$E$5:$E$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
@@ -14732,6 +14991,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14828,9 +15090,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14839,16 +15101,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$F$5:$F$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -14857,6 +15122,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14953,9 +15221,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14964,16 +15232,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$G$5:$G$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.166666666666667</c:v>
                 </c:pt>
@@ -14982,6 +15253,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15078,9 +15352,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15089,16 +15363,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$H$5:$H$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -15107,6 +15384,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15203,9 +15483,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15214,16 +15494,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$I$5:$I$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333339</c:v>
                 </c:pt>
@@ -15232,6 +15515,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15328,9 +15614,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15339,16 +15625,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$J$5:$J$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
@@ -15357,6 +15646,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15453,9 +15745,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Complex Perception per Pattern'!$A$5:$A$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15464,24 +15756,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Original Ranking</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Complex Perception per Pattern'!$K$5:$K$8</c:f>
+              <c:f>'Complex Perception per Pattern'!$K$5:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18977,13 +19275,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19121,13 +19419,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3888888888888884</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3888888888888884</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3888888888888884</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19430,6 +19728,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -19499,94 +19855,94 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="33"/>
                   <c:pt idx="0">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.24605236980918366</c:v>
+                    <c:v>0.18278835269862412</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24605236980918366</c:v>
+                    <c:v>0.18278835269862412</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.38652286562352839</c:v>
+                    <c:v>0.39410667596286958</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.32021893440526095</c:v>
+                    <c:v>0.32822350518068616</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32021893440526095</c:v>
+                    <c:v>0.32822350518068616</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.38652286562352839</c:v>
+                    <c:v>0.39410667596286958</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>6.590680724167261E-2</c:v>
+                    <c:v>5.0797194974441552E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.24605236980918366</c:v>
+                    <c:v>0.18278835269862412</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.24605236980918366</c:v>
+                    <c:v>0.18278835269862412</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.3938655614688667</c:v>
+                    <c:v>0.37994870545814363</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.13222834107303114</c:v>
+                    <c:v>0.11783726361034583</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.7731964336435863E-2</c:v>
+                    <c:v>1.758182198027277E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.33881721067629245</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.37994870545814363</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.29410554425988816</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.37994870545814363</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.37994870545814363</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.39410667596286958</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.39410667596286958</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.39410667596286958</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.21947882753590914</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.21947882753590914</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.21947882753590914</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>7.8070262175228125E-2</c:v>
+                    <c:v>0.21947882753590914</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -19666,6 +20022,42 @@
                 <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -19676,94 +20068,94 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24605236980918366</c:v>
+                  <c:v>0.18278835269862412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24605236980918366</c:v>
+                  <c:v>0.18278835269862412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38652286562352839</c:v>
+                  <c:v>0.39410667596286958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32021893440526095</c:v>
+                  <c:v>0.32822350518068616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32021893440526095</c:v>
+                  <c:v>0.32822350518068616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38652286562352839</c:v>
+                  <c:v>0.39410667596286958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.590680724167261E-2</c:v>
+                  <c:v>5.0797194974441552E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24605236980918366</c:v>
+                  <c:v>0.18278835269862412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24605236980918366</c:v>
+                  <c:v>0.18278835269862412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3938655614688667</c:v>
+                  <c:v>0.37994870545814363</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13222834107303114</c:v>
+                  <c:v>0.11783726361034583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7731964336435863E-2</c:v>
+                  <c:v>1.758182198027277E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33881721067629245</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.37994870545814363</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.29410554425988816</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.37994870545814363</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.37994870545814363</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.39410667596286958</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.39410667596286958</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.39410667596286958</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.21947882753590914</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.21947882753590914</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.21947882753590914</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8070262175228125E-2</c:v>
+                  <c:v>0.21947882753590914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19790,6 +20182,8 @@
         <c:axId val="67387647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19893,6 +20287,7 @@
         <c:crossAx val="67364127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="67364127"/>
@@ -19996,6 +20391,7 @@
         <c:crossAx val="67387647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -27609,201 +28005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45217.790467592589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="40">
-    <cacheField name="Participant" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="49">
-        <m/>
-        <s v="A"/>
-        <s v="B"/>
-        <s v="C"/>
-        <s v="D"/>
-        <s v="E"/>
-        <s v="F"/>
-        <s v="G"/>
-        <s v="H"/>
-        <s v="I"/>
-        <s v="J"/>
-        <s v="K"/>
-        <s v="L"/>
-        <s v="M"/>
-        <s v="N"/>
-        <s v="O"/>
-        <s v="P"/>
-        <s v="Q"/>
-        <s v="R"/>
-        <s v="S"/>
-        <s v="T"/>
-        <s v="U"/>
-        <s v="V"/>
-        <s v="W"/>
-        <s v="X"/>
-        <s v="Y"/>
-        <s v="Z"/>
-        <s v="1A"/>
-        <s v="1B"/>
-        <s v="1C"/>
-        <s v="1D"/>
-        <s v="A1" u="1"/>
-        <s v="1E" u="1"/>
-        <s v="1F" u="1"/>
-        <s v="AH" u="1"/>
-        <s v="1H" u="1"/>
-        <s v="1J" u="1"/>
-        <s v="1L" u="1"/>
-        <s v="AA" u="1"/>
-        <s v="AC" u="1"/>
-        <s v="AE" u="1"/>
-        <s v="AG" u="1"/>
-        <s v="1G" u="1"/>
-        <s v="1I" u="1"/>
-        <s v="1K" u="1"/>
-        <s v="1M" u="1"/>
-        <s v="AB" u="1"/>
-        <s v="AD" u="1"/>
-        <s v="AF" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Participant2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Code" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Gender" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Patern" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Level Chosen" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
-    </cacheField>
-    <cacheField name="LV1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
-    </cacheField>
-    <cacheField name="LV2" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
-    </cacheField>
-    <cacheField name="LV3" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="LV4" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
-    </cacheField>
-    <cacheField name="LV5" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
-    </cacheField>
-    <cacheField name="LV6" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
-    </cacheField>
-    <cacheField name="LV7" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
-    </cacheField>
-    <cacheField name="LV8" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="LV9" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
-    </cacheField>
-    <cacheField name="LV10" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
-    </cacheField>
-    <cacheField name="Improvement (%)" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.141999999999999" maxValue="100"/>
-    </cacheField>
-    <cacheField name="Mean" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3888888888888893" maxValue="4.3888888888888893"/>
-    </cacheField>
-    <cacheField name="Standard Deviation" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4298808587365599" maxValue="2.4298808587365599"/>
-    </cacheField>
-    <cacheField name="Z-score" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.8062156723070508" maxValue="2.3092124418102795"/>
-    </cacheField>
-    <cacheField name="Probability" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.7731964336435863E-2" maxValue="0.3938655614688667"/>
-    </cacheField>
-    <cacheField name="Probability SD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12764730227735613" maxValue="0.12764730227735613"/>
-    </cacheField>
-    <cacheField name="Q1" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Q2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Q3" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Q4" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Q5" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Q6" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="6"/>
-    </cacheField>
-    <cacheField name="Q7" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q8" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="6"/>
-    </cacheField>
-    <cacheField name="Q9" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q10" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q11" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q12" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
-    </cacheField>
-    <cacheField name="Q13" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q14" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Q15" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Mean Q6" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
-    </cacheField>
-    <cacheField name="SD Q6" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2649110640673518" maxValue="1.2649110640673518"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45217.840416898151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E3B8432B-442A-47AB-AE7C-7CA624C28305}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
@@ -27964,1314 +28166,197 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="10"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="YUAN YAWEN "/>
-    <s v="Y2Y"/>
-    <s v="Female"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="6"/>
-    <n v="20.012"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <s v="mathematic student"/>
-    <s v="a) None"/>
-    <s v="Bachelor's degree"/>
-    <s v="b) SketchUp"/>
-    <s v="b) Limited budget 限られた予算, c) Building constraints 建物の制約, d) Client preferences お客様のご希望, e) Environmental factors 環境要因"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="2"/>
-    <n v="6"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="2"/>
-    <s v="YUAN YAWEN "/>
-    <s v="Y2Y"/>
-    <s v="Female"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="20.012"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="3"/>
-    <s v="YUAN YAWEN "/>
-    <s v="Y2Y"/>
-    <s v="Female"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="20.012"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.98313004948358462"/>
-    <n v="0.24605236980918366"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="4"/>
-    <s v="Ivo"/>
-    <s v="1V0"/>
-    <s v="Male"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="8"/>
-    <n v="100"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.98313004948358462"/>
-    <n v="0.24605236980918366"/>
-    <n v="0.12764730227735613"/>
-    <s v="Computer engineer"/>
-    <s v="a) None"/>
-    <s v="Bachelor's degree"/>
-    <s v="none"/>
-    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="5"/>
-    <s v="Ivo"/>
-    <s v="1V0"/>
-    <s v="Male"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="50.497999999999998"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="0.25149838475161446"/>
-    <n v="0.38652286562352839"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="6"/>
-    <s v="Ivo"/>
-    <s v="1V0"/>
-    <s v="Male"/>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="8"/>
-    <n v="97.144000000000005"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="0.66304119616334756"/>
-    <n v="0.32021893440526095"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="7"/>
-    <s v="Alice"/>
-    <s v="5JY"/>
-    <s v="Female"/>
-    <x v="1"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="26.998999999999999"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="0.66304119616334756"/>
-    <n v="0.32021893440526095"/>
-    <n v="0.12764730227735613"/>
-    <s v="University Student"/>
-    <s v="a) None"/>
-    <s v="Bachelor's degree"/>
-    <s v="none"/>
-    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算, c) Building constraints 建物の制約"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="2"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="8"/>
-    <s v="Alice"/>
-    <s v="5JY"/>
-    <s v="Female"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="8"/>
-    <n v="7"/>
-    <n v="10"/>
-    <n v="10"/>
-    <n v="18.141999999999999"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="0.25149838475161446"/>
-    <n v="0.38652286562352839"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="9"/>
-    <s v="Alice"/>
-    <s v="5JY"/>
-    <s v="Female"/>
-    <x v="3"/>
-    <n v="9"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="8"/>
-    <n v="95.465000000000003"/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="1.8976696303985465"/>
-    <n v="6.590680724167261E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="10"/>
-    <s v="Li san"/>
-    <s v="LS5"/>
-    <s v="Male"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <s v="Architect"/>
-    <s v="c) 1-5 years"/>
-    <s v="Bachelor's degree"/>
-    <s v="c) Revit, d) Rhino"/>
-    <s v="c) Building constraints 建物の制約, e) Environmental factors 環境要因"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="11"/>
-    <s v="Li san"/>
-    <s v="LS5"/>
-    <s v="Male"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="12"/>
-    <s v="Li san"/>
-    <s v="LS5"/>
-    <s v="Male"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.98313004948358462"/>
-    <n v="0.24605236980918366"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="13"/>
-    <s v="Mar"/>
-    <s v="GM4"/>
-    <s v="Female"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <s v="Marine biologist"/>
-    <s v="a) None"/>
-    <s v="Master's degree "/>
-    <s v="none"/>
-    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算, c) Building constraints 建物の制約, d) Client preferences お客様のご希望, e) Environmental factors 環境要因"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="14"/>
-    <s v="Mar"/>
-    <s v="GM4"/>
-    <s v="Female"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="5"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="8"/>
-    <n v="10"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.98313004948358462"/>
-    <n v="0.24605236980918366"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="15"/>
-    <s v="Mar"/>
-    <s v="GM4"/>
-    <s v="Female"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="7"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.16004442666011856"/>
-    <n v="0.3938655614688667"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="16"/>
-    <s v="Su Lehan"/>
-    <s v="AB1"/>
-    <s v="Female"/>
-    <x v="1"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="7"/>
-    <n v="10"/>
-    <n v="9"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="1.4861268189868135"/>
-    <n v="0.13222834107303114"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="17"/>
-    <s v="Su Lehan"/>
-    <s v="AB1"/>
-    <s v="Female"/>
-    <x v="2"/>
-    <n v="10"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="7"/>
-    <n v="8"/>
-    <n v="9"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="2.3092124418102795"/>
-    <n v="2.7731964336435863E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="18"/>
-    <s v="Su Lehan"/>
-    <s v="AB1"/>
-    <s v="Female"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="7"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="9"/>
-    <n v="10"/>
-    <n v="8"/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-0.57158723807185163"/>
-    <n v="0.33881721067629245"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="19"/>
-    <s v="Amira"/>
-    <m/>
-    <s v="Female"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="20"/>
-    <s v="Amira"/>
-    <m/>
-    <s v="Female"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="21"/>
-    <s v="Amira"/>
-    <m/>
-    <s v="Female"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="22"/>
-    <s v="Ujjal"/>
-    <m/>
-    <s v="Male"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="23"/>
-    <s v="Ujjal"/>
-    <m/>
-    <s v="Male"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="24"/>
-    <s v="Ujjal"/>
-    <m/>
-    <s v="Male"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="25"/>
-    <s v="Kaneko"/>
-    <m/>
-    <s v="Male"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="26"/>
-    <s v="Kaneko"/>
-    <m/>
-    <s v="Male"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="27"/>
-    <s v="Kaneko"/>
-    <m/>
-    <s v="Male"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="28"/>
-    <s v="Bryan"/>
-    <m/>
-    <s v="Male"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="29"/>
-    <s v="Bryan"/>
-    <m/>
-    <s v="Male"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="30"/>
-    <s v="Bryan"/>
-    <m/>
-    <s v="Male"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="4.3888888888888893"/>
-    <n v="2.4298808587365599"/>
-    <n v="-1.8062156723070508"/>
-    <n v="7.8070262175228125E-2"/>
-    <n v="0.12764730227735613"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="5"/>
-    <n v="1.2649110640673518"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Drone Fabian" refreshedDate="45218.517501620372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="40">
+    <cacheField name="Participant" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsBlank="1" count="49">
+        <m/>
+        <s v="A"/>
+        <s v="B"/>
+        <s v="C"/>
+        <s v="D"/>
+        <s v="E"/>
+        <s v="F"/>
+        <s v="G"/>
+        <s v="H"/>
+        <s v="I"/>
+        <s v="J"/>
+        <s v="K"/>
+        <s v="L"/>
+        <s v="M"/>
+        <s v="N"/>
+        <s v="O"/>
+        <s v="P"/>
+        <s v="Q"/>
+        <s v="R"/>
+        <s v="S"/>
+        <s v="T"/>
+        <s v="U"/>
+        <s v="V"/>
+        <s v="W"/>
+        <s v="X"/>
+        <s v="Y"/>
+        <s v="Z"/>
+        <s v="1A"/>
+        <s v="1B"/>
+        <s v="1C"/>
+        <s v="1D"/>
+        <s v="AH" u="1"/>
+        <s v="A1" u="1"/>
+        <s v="1F" u="1"/>
+        <s v="1H" u="1"/>
+        <s v="1J" u="1"/>
+        <s v="1L" u="1"/>
+        <s v="AA" u="1"/>
+        <s v="AC" u="1"/>
+        <s v="AE" u="1"/>
+        <s v="AG" u="1"/>
+        <s v="1E" u="1"/>
+        <s v="1G" u="1"/>
+        <s v="1I" u="1"/>
+        <s v="1K" u="1"/>
+        <s v="1M" u="1"/>
+        <s v="AB" u="1"/>
+        <s v="AD" u="1"/>
+        <s v="AF" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Participant2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Code" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Patern" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Level Chosen" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+    </cacheField>
+    <cacheField name="LV1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    </cacheField>
+    <cacheField name="LV2" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+    </cacheField>
+    <cacheField name="LV3" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="LV4" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="LV5" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="LV6" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="LV7" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+    </cacheField>
+    <cacheField name="LV8" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="LV9" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+    </cacheField>
+    <cacheField name="LV10" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Improvement (%)" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.141999999999999" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Mean" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.666666666666667" maxValue="4.666666666666667"/>
+    </cacheField>
+    <cacheField name="Standard Deviation" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1343747458109497" maxValue="2.1343747458109497"/>
+    </cacheField>
+    <cacheField name="Z-score" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.186432666440485" maxValue="2.4987801902176967"/>
+    </cacheField>
+    <cacheField name="Probability" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.758182198027277E-2" maxValue="0.39410667596286958"/>
+    </cacheField>
+    <cacheField name="Probability SD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.10877617408611068" maxValue="0.10877617408611068"/>
+    </cacheField>
+    <cacheField name="Q1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Q2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Q3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Q4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Q5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Q6" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Q7" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q8" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Q9" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q10" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q11" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q12" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Q13" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q14" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Q15" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Mean Q6" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.666666666666667" maxValue="4.666666666666667"/>
+    </cacheField>
+    <cacheField name="SD Q6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3743685418725535" maxValue="1.3743685418725535"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
   <r>
     <m/>
@@ -30578,8 +29663,1315 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-2.186432666440485"/>
+    <n v="3.6546040283071353E-2"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="YUAN YAWEN "/>
+    <s v="Y2Y"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="20.012"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <s v="Mathematics"/>
+    <s v="a) None"/>
+    <s v="Bachelor's degree"/>
+    <s v="b) SketchUp"/>
+    <s v="b) Limited budget 限られた予算, c) Building constraints 建物の制約, d) Client preferences お客様のご希望, e) Environmental factors 環境要因"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="YUAN YAWEN "/>
+    <s v="Y2Y"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="20.012"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="YUAN YAWEN "/>
+    <s v="Y2Y"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="20.012"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-1.2493900951088486"/>
+    <n v="0.18278835269862412"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <s v="Ivo"/>
+    <s v="1V0"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="100"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-1.2493900951088486"/>
+    <n v="0.18278835269862412"/>
+    <n v="0.10877617408611068"/>
+    <s v="Computer engineer"/>
+    <s v="a) None"/>
+    <s v="Bachelor's degree"/>
+    <s v="none"/>
+    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="5"/>
+    <s v="Ivo"/>
+    <s v="1V0"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="50.497999999999998"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.15617376188860593"/>
+    <n v="0.39410667596286958"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="6"/>
+    <s v="Ivo"/>
+    <s v="1V0"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="97.144000000000005"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.62469504755442407"/>
+    <n v="0.32822350518068616"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="7"/>
+    <s v="Alice"/>
+    <s v="5JY"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="26.998999999999999"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.62469504755442407"/>
+    <n v="0.32822350518068616"/>
+    <n v="0.10877617408611068"/>
+    <s v="Undergraduate Student"/>
+    <s v="a) None"/>
+    <s v="Bachelor's degree"/>
+    <s v="none"/>
+    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算, c) Building constraints 建物の制約"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="8"/>
+    <s v="Alice"/>
+    <s v="5JY"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="18.141999999999999"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.15617376188860593"/>
+    <n v="0.39410667596286958"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="9"/>
+    <s v="Alice"/>
+    <s v="5JY"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="95.465000000000003"/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="2.0302589045518786"/>
+    <n v="5.0797194974441552E-2"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="10"/>
+    <s v="Li san"/>
+    <s v="LS5"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <s v="Architect"/>
+    <s v="c) 1-5 years"/>
+    <s v="Bachelor's degree"/>
+    <s v="c) Revit, d) Rhino"/>
+    <s v="c) Building constraints 建物の制約, e) Environmental factors 環境要因"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="11"/>
+    <s v="Li san"/>
+    <s v="LS5"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="12"/>
+    <s v="Li san"/>
+    <s v="LS5"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-1.2493900951088486"/>
+    <n v="0.18278835269862412"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="13"/>
+    <s v="Mar"/>
+    <s v="GM4"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <s v="Marine biologist"/>
+    <s v="a) None"/>
+    <s v="Master's degree "/>
+    <s v="none"/>
+    <s v="a) Limited space 限られたスペース, b) Limited budget 限られた予算, c) Building constraints 建物の制約, d) Client preferences お客様のご希望, e) Environmental factors 環境要因"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="14"/>
+    <s v="Mar"/>
+    <s v="GM4"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-1.2493900951088486"/>
+    <n v="0.18278835269862412"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="15"/>
+    <s v="Mar"/>
+    <s v="GM4"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.31234752377721225"/>
+    <n v="0.37994870545814363"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="16"/>
+    <s v="Su Lehan"/>
+    <s v="AB1"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="1.5617376188860606"/>
+    <n v="0.11783726361034583"/>
+    <n v="0.10877617408611068"/>
+    <s v="Undergraduate Student"/>
+    <s v="a) None"/>
+    <s v="Bachelor's degree"/>
+    <s v="none"/>
+    <s v="none"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="17"/>
+    <s v="Su Lehan"/>
+    <s v="AB1"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="2.4987801902176967"/>
+    <n v="1.758182198027277E-2"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="18"/>
+    <s v="Su Lehan"/>
+    <s v="AB1"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="19"/>
+    <s v="Amira"/>
+    <m/>
+    <s v="Female"/>
+    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <s v="Architect"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="20"/>
+    <s v="Amira"/>
+    <m/>
+    <s v="Female"/>
+    <x v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.31234752377721225"/>
+    <n v="0.37994870545814363"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="21"/>
+    <s v="Amira"/>
+    <m/>
+    <s v="Female"/>
+    <x v="3"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.78086880944303039"/>
+    <n v="0.29410554425988816"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="22"/>
+    <s v="Ujjal"/>
+    <m/>
+    <s v="Male"/>
+    <x v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.31234752377721225"/>
+    <n v="0.37994870545814363"/>
+    <n v="0.10877617408611068"/>
+    <s v="Mechanical Engineer"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="23"/>
+    <s v="Ujjal"/>
+    <m/>
+    <s v="Male"/>
+    <x v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="-0.31234752377721225"/>
+    <n v="0.37994870545814363"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="24"/>
+    <s v="Ujjal"/>
+    <m/>
+    <s v="Male"/>
+    <x v="3"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.15617376188860593"/>
+    <n v="0.39410667596286958"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="25"/>
+    <s v="Kaneko"/>
+    <m/>
+    <s v="Male"/>
+    <x v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.15617376188860593"/>
+    <n v="0.39410667596286958"/>
+    <n v="0.10877617408611068"/>
+    <s v="Undergraduate Student"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="26"/>
+    <s v="Kaneko"/>
+    <m/>
+    <s v="Male"/>
+    <x v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="0.15617376188860593"/>
+    <n v="0.39410667596286958"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="27"/>
+    <s v="Kaneko"/>
+    <m/>
+    <s v="Male"/>
+    <x v="3"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="1.0932163332202423"/>
+    <n v="0.21947882753590914"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="28"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="1"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="1.0932163332202423"/>
+    <n v="0.21947882753590914"/>
+    <n v="0.10877617408611068"/>
+    <s v="Material Engineer"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="29"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="2"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="1.0932163332202423"/>
+    <n v="0.21947882753590914"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="30"/>
+    <s v="Bryan"/>
+    <m/>
+    <s v="Male"/>
+    <x v="3"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="2.1343747458109497"/>
+    <n v="1.0932163332202423"/>
+    <n v="0.21947882753590914"/>
+    <n v="0.10877617408611068"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4.666666666666667"/>
+    <n v="1.3743685418725535"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A4:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -30589,25 +30981,25 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item m="1" x="32"/>
+        <item m="1" x="41"/>
         <item m="1" x="33"/>
         <item m="1" x="42"/>
+        <item m="1" x="34"/>
+        <item m="1" x="43"/>
         <item m="1" x="35"/>
-        <item m="1" x="43"/>
+        <item m="1" x="44"/>
         <item m="1" x="36"/>
-        <item m="1" x="44"/>
-        <item m="1" x="37"/>
         <item m="1" x="45"/>
         <item x="1"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="46"/>
+        <item m="1" x="38"/>
+        <item m="1" x="47"/>
+        <item m="1" x="39"/>
+        <item m="1" x="48"/>
+        <item m="1" x="40"/>
         <item m="1" x="31"/>
-        <item m="1" x="38"/>
-        <item m="1" x="46"/>
-        <item m="1" x="39"/>
-        <item m="1" x="47"/>
-        <item m="1" x="40"/>
-        <item m="1" x="48"/>
-        <item m="1" x="41"/>
-        <item m="1" x="34"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -31178,7 +31570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="44">
   <location ref="A4:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -31298,7 +31690,7 @@
     <dataField name=" LV10" fld="16" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="9" selected="0">
@@ -31316,7 +31708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32073,8 +32465,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
-  <location ref="A4:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
+  <location ref="A4:K9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
     <pivotField showAll="0" sortType="ascending"/>
@@ -32086,7 +32478,7 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item n="Original Ranking" h="1" x="0"/>
+        <item n=" Original Ranking" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32128,7 +32520,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -32137,6 +32529,9 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -32190,11 +32585,11 @@
     <dataField name=" LV10" fld="16" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="60">
+  <chartFormats count="90">
     <chartFormat chart="26" format="92" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -32735,6 +33130,276 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="39" format="152" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="153" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="154" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="155" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="156" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="157" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="158" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="159" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="160" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="161" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="152" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="153" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="154" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="155" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="156" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="157" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="158" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="159" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="160" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="161" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="162" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="163" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="164" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="165" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="166" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="167" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="168" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="169" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="170" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="171" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -32749,7 +33414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A4:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -32834,7 +33499,7 @@
     <dataField name=" Mean" fld="18" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -32846,7 +33511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32855,7 +33520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32865,7 +33530,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="6">
+  <chartFormats count="10">
     <chartFormat chart="5" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -32920,6 +33585,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="28" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -32934,7 +33635,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{953EFD5B-4D67-4279-B0CB-F289088FC3B0}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{953EFD5B-4D67-4279-B0CB-F289088FC3B0}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="D4:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -33321,7 +34022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D662A22-0AB4-4A23-BBB7-13E49E5086FD}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D662A22-0AB4-4A23-BBB7-13E49E5086FD}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -34086,7 +34787,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN32" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN32" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:AN32" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN33">
     <sortCondition ref="A1:A33"/>
@@ -34098,52 +34799,52 @@
     <tableColumn id="5" xr3:uid="{609E5D5B-A0EA-4531-B592-77507CEBE1C8}" name="Code"/>
     <tableColumn id="10" xr3:uid="{64771C3E-7E16-45EF-A2EE-D25D6C2AE74A}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{62236BB4-55BB-4C73-B959-4C284985000F}" name="Patern"/>
-    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="39"/>
-    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="38"/>
-    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="35"/>
-    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="34"/>
-    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="33"/>
-    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="32"/>
-    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="58"/>
+    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="57"/>
+    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="56"/>
+    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="53"/>
+    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="52"/>
+    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="51"/>
+    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="50"/>
+    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="47">
       <calculatedColumnFormula>AVERAGE(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="46">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="27">
+    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="45">
       <calculatedColumnFormula>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{25E55D02-3768-4B1F-8F52-59DF71FF8579}" name="Probability" dataCellStyle="Percent">
       <calculatedColumnFormula>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="26">
+    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="44">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Probability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="19"/>
-    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="33"/>
+    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="29"/>
+    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="28">
       <calculatedColumnFormula array="1">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="9">
+    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="27">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Q6])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34159,9 +34860,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FB5DF70B-33CC-4975-B87B-DA11AE649F1F}" name="N"/>
-    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -34466,27 +35167,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC631591-43A8-4460-8DC2-48580981F06F}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
-    <col min="4" max="6" width="11.1328125" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.86328125" style="20" customWidth="1"/>
-    <col min="9" max="17" width="11.1328125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="13.1328125" customWidth="1"/>
-    <col min="21" max="21" width="11.3984375" customWidth="1"/>
-    <col min="22" max="23" width="11.265625" customWidth="1"/>
-    <col min="24" max="24" width="39.59765625" customWidth="1"/>
-    <col min="28" max="28" width="60.86328125" customWidth="1"/>
-    <col min="39" max="40" width="9.1328125" style="14"/>
+    <col min="8" max="8" width="15.85546875" style="20" customWidth="1"/>
+    <col min="9" max="17" width="11.140625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="39.5703125" customWidth="1"/>
+    <col min="28" max="28" width="60.85546875" customWidth="1"/>
+    <col min="39" max="40" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -34608,7 +35309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>0</v>
       </c>
@@ -34646,23 +35347,23 @@
       <c r="R2" s="26"/>
       <c r="S2" s="26">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T2" s="26">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U2" s="26">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-2.186432666440485</v>
       </c>
       <c r="V2" s="27">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>3.6546040283071353E-2</v>
       </c>
       <c r="W2" s="2">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X2" s="28"/>
       <c r="AM2" s="29" cm="1">
@@ -34674,7 +35375,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" ht="39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -34731,23 +35432,23 @@
       </c>
       <c r="S3" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T3" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U3" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V3" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W3">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>140</v>
@@ -34803,7 +35504,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -34860,23 +35561,23 @@
       </c>
       <c r="S4" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T4" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U4" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V4" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W4">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X4" s="1"/>
       <c r="AM4" s="12" cm="1">
@@ -34888,7 +35589,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -34945,23 +35646,23 @@
       </c>
       <c r="S5" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T5" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U5" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.98313004948358462</v>
+        <v>-1.2493900951088486</v>
       </c>
       <c r="V5" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24605236980918366</v>
+        <v>0.18278835269862412</v>
       </c>
       <c r="W5">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X5" s="1"/>
       <c r="AM5" s="12" cm="1">
@@ -34973,7 +35674,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -35030,23 +35731,23 @@
       </c>
       <c r="S6" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T6" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U6" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.98313004948358462</v>
+        <v>-1.2493900951088486</v>
       </c>
       <c r="V6" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24605236980918366</v>
+        <v>0.18278835269862412</v>
       </c>
       <c r="W6">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>98</v>
@@ -35102,7 +35803,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -35159,23 +35860,23 @@
       </c>
       <c r="S7" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T7" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U7" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.25149838475161446</v>
+        <v>0.15617376188860593</v>
       </c>
       <c r="V7" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.38652286562352839</v>
+        <v>0.39410667596286958</v>
       </c>
       <c r="W7">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X7" s="1"/>
       <c r="AM7" s="12" cm="1">
@@ -35187,7 +35888,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -35244,23 +35945,23 @@
       </c>
       <c r="S8" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T8" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U8" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.66304119616334756</v>
+        <v>0.62469504755442407</v>
       </c>
       <c r="V8" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.32021893440526095</v>
+        <v>0.32822350518068616</v>
       </c>
       <c r="W8">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -35286,7 +35987,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -35343,23 +36044,23 @@
       </c>
       <c r="S9" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T9" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U9" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.66304119616334756</v>
+        <v>0.62469504755442407</v>
       </c>
       <c r="V9" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.32021893440526095</v>
+        <v>0.32822350518068616</v>
       </c>
       <c r="W9">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>141</v>
@@ -35415,7 +36116,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -35472,23 +36173,23 @@
       </c>
       <c r="S10" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T10" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U10" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.25149838475161446</v>
+        <v>0.15617376188860593</v>
       </c>
       <c r="V10" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.38652286562352839</v>
+        <v>0.39410667596286958</v>
       </c>
       <c r="W10">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="9"/>
@@ -35514,7 +36215,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -35571,23 +36272,23 @@
       </c>
       <c r="S11" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T11" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U11" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.8976696303985465</v>
+        <v>2.0302589045518786</v>
       </c>
       <c r="V11" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>6.590680724167261E-2</v>
+        <v>5.0797194974441552E-2</v>
       </c>
       <c r="W11">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X11" s="1"/>
       <c r="AM11" s="12" cm="1">
@@ -35599,7 +36300,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -35654,23 +36355,23 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T12" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U12" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V12" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W12">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>31</v>
@@ -35726,7 +36427,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -35781,23 +36482,23 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T13" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U13" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V13" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W13">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X13" s="1"/>
       <c r="AM13" s="12" cm="1">
@@ -35809,7 +36510,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -35864,23 +36565,23 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T14" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U14" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.98313004948358462</v>
+        <v>-1.2493900951088486</v>
       </c>
       <c r="V14" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24605236980918366</v>
+        <v>0.18278835269862412</v>
       </c>
       <c r="W14">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X14" s="1"/>
       <c r="AM14" s="12" cm="1">
@@ -35892,7 +36593,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="39.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:40" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -35947,23 +36648,23 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T15" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U15" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V15" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W15">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>114</v>
@@ -36019,7 +36720,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -36074,23 +36775,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T16" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U16" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.98313004948358462</v>
+        <v>-1.2493900951088486</v>
       </c>
       <c r="V16" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.24605236980918366</v>
+        <v>0.18278835269862412</v>
       </c>
       <c r="W16">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X16" s="1"/>
       <c r="AM16" s="12" cm="1">
@@ -36102,7 +36803,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -36157,23 +36858,23 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T17" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U17" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.16004442666011856</v>
+        <v>-0.31234752377721225</v>
       </c>
       <c r="V17" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.3938655614688667</v>
+        <v>0.37994870545814363</v>
       </c>
       <c r="W17">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X17" s="1"/>
       <c r="AM17" s="12" cm="1">
@@ -36185,7 +36886,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -36240,23 +36941,23 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T18" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U18" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.4861268189868135</v>
+        <v>1.5617376188860606</v>
       </c>
       <c r="V18" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.13222834107303114</v>
+        <v>0.11783726361034583</v>
       </c>
       <c r="W18">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>141</v>
@@ -36312,7 +37013,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -36367,23 +37068,23 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T19" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U19" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>2.3092124418102795</v>
+        <v>2.4987801902176967</v>
       </c>
       <c r="V19" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>2.7731964336435863E-2</v>
+        <v>1.758182198027277E-2</v>
       </c>
       <c r="W19">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X19" s="1"/>
       <c r="AM19" s="12" cm="1">
@@ -36395,7 +37096,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -36450,23 +37151,23 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T20" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U20" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.57158723807185163</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V20" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.33881721067629245</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W20">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X20" s="1"/>
       <c r="AM20" s="12" cm="1">
@@ -36478,7 +37179,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -36494,7 +37195,9 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="31">
+        <v>3</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -36503,27 +37206,29 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="18">
+        <v>10</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T21" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U21" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V21" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W21">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>31</v>
@@ -36537,7 +37242,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -36553,7 +37258,9 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="31">
+        <v>4</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -36562,27 +37269,29 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="18">
+        <v>10</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T22" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U22" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-0.31234752377721225</v>
       </c>
       <c r="V22" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.37994870545814363</v>
       </c>
       <c r="W22">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X22" s="1"/>
       <c r="AM22" s="12" cm="1">
@@ -36594,7 +37303,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -36610,7 +37319,9 @@
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="31">
+        <v>3</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -36619,27 +37330,29 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="18">
+        <v>10</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T23" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U23" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-0.78086880944303039</v>
       </c>
       <c r="V23" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.29410554425988816</v>
       </c>
       <c r="W23">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X23" s="1"/>
       <c r="AM23" s="12" cm="1">
@@ -36651,7 +37364,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -36667,7 +37380,9 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="31">
+        <v>4</v>
+      </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -36676,27 +37391,29 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="Q24" s="18">
+        <v>10</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T24" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U24" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-0.31234752377721225</v>
       </c>
       <c r="V24" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.37994870545814363</v>
       </c>
       <c r="W24">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>142</v>
@@ -36710,7 +37427,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -36726,7 +37443,9 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="31">
+        <v>4</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -36735,27 +37454,29 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="18">
+        <v>10</v>
+      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T25" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U25" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>-0.31234752377721225</v>
       </c>
       <c r="V25" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.37994870545814363</v>
       </c>
       <c r="W25">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X25" s="1"/>
       <c r="AM25" s="12" cm="1">
@@ -36767,7 +37488,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -36783,7 +37504,9 @@
       <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="31">
+        <v>5</v>
+      </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -36792,27 +37515,29 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="18">
+        <v>10</v>
+      </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T26" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U26" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>0.15617376188860593</v>
       </c>
       <c r="V26" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.39410667596286958</v>
       </c>
       <c r="W26">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X26" s="1"/>
       <c r="AM26" s="12" cm="1">
@@ -36824,7 +37549,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -36840,7 +37565,9 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="31">
+        <v>5</v>
+      </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
@@ -36849,27 +37576,29 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="18">
+        <v>10</v>
+      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T27" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U27" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>0.15617376188860593</v>
       </c>
       <c r="V27" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.39410667596286958</v>
       </c>
       <c r="W27">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>141</v>
@@ -36883,7 +37612,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -36899,7 +37628,9 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="31">
+        <v>5</v>
+      </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -36908,27 +37639,29 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="18">
+        <v>10</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T28" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U28" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>0.15617376188860593</v>
       </c>
       <c r="V28" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.39410667596286958</v>
       </c>
       <c r="W28">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X28" s="1"/>
       <c r="AM28" s="12" cm="1">
@@ -36940,7 +37673,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -36956,7 +37689,9 @@
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="31">
+        <v>7</v>
+      </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -36965,27 +37700,29 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="18">
+        <v>10</v>
+      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T29" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U29" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>1.0932163332202423</v>
       </c>
       <c r="V29" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.21947882753590914</v>
       </c>
       <c r="W29">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X29" s="1"/>
       <c r="AM29" s="12" cm="1">
@@ -36997,7 +37734,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -37013,7 +37750,9 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="31">
+        <v>7</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
@@ -37022,27 +37761,29 @@
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="Q30" s="18">
+        <v>10</v>
+      </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T30" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U30" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>1.0932163332202423</v>
       </c>
       <c r="V30" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.21947882753590914</v>
       </c>
       <c r="W30">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>143</v>
@@ -37056,7 +37797,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -37072,7 +37813,9 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="31">
+        <v>7</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -37081,27 +37824,29 @@
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="Q31" s="18">
+        <v>10</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T31" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U31" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>1.0932163332202423</v>
       </c>
       <c r="V31" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.21947882753590914</v>
       </c>
       <c r="W31">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X31" s="1"/>
       <c r="AM31" s="12" cm="1">
@@ -37113,7 +37858,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -37129,7 +37874,9 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="31">
+        <v>7</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -37138,27 +37885,29 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
+      <c r="Q32" s="18">
+        <v>10</v>
+      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="T32" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.4298808587365599</v>
+        <v>2.1343747458109497</v>
       </c>
       <c r="U32" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.8062156723070508</v>
+        <v>1.0932163332202423</v>
       </c>
       <c r="V32" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>7.8070262175228125E-2</v>
+        <v>0.21947882753590914</v>
       </c>
       <c r="W32">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.12764730227735613</v>
+        <v>0.10877617408611068</v>
       </c>
       <c r="X32" s="1"/>
       <c r="AM32" s="12" cm="1">
@@ -37170,7 +37919,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="33" spans="7:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -37203,27 +37952,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AFC022-F449-4E99-B675-6841F6ED2E88}">
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -37231,7 +37980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -37242,310 +37991,346 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="B5" s="30">
+        <v>7</v>
+      </c>
       <c r="C5" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="B6" s="30">
+        <v>7</v>
+      </c>
       <c r="C6" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="B7" s="30">
+        <v>7</v>
+      </c>
       <c r="C7" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="B8" s="30">
+        <v>7</v>
+      </c>
       <c r="C8" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="30">
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="30">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="30">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="30">
         <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="30">
         <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="30">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="30">
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="30">
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="30">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="30">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V19" s="15"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="30">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="30">
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="30">
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="30">
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="30">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="30">
         <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="30">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="B27" s="30">
+        <v>3</v>
+      </c>
       <c r="C27" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="B28" s="30">
+        <v>4</v>
+      </c>
       <c r="C28" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="B29" s="30">
+        <v>3</v>
+      </c>
       <c r="C29" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="B30" s="30">
+        <v>4</v>
+      </c>
       <c r="C30" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="B31" s="30">
+        <v>4</v>
+      </c>
       <c r="C31" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="B32" s="30">
+        <v>5</v>
+      </c>
       <c r="C32" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="B33" s="30">
+        <v>5</v>
+      </c>
       <c r="C33" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="B34" s="30">
+        <v>5</v>
+      </c>
       <c r="C34" s="3">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35">
-        <v>79</v>
+      <c r="B35" s="30">
+        <v>140</v>
       </c>
       <c r="C35" s="3">
-        <v>4.3888888888888866</v>
+        <v>4.6666666666666679</v>
       </c>
     </row>
   </sheetData>
@@ -37560,33 +38345,32 @@
   <dimension ref="A4:V19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -37606,7 +38390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -37626,7 +38410,7 @@
         <v>2.7894736842105261</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -37646,7 +38430,7 @@
         <v>3.6842105263157894</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -37666,7 +38450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -37686,7 +38470,7 @@
         <v>4.3157894736842106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -37706,7 +38490,7 @@
         <v>4.6315789473684212</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -37726,7 +38510,7 @@
         <v>5.0526315789473681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -37746,7 +38530,7 @@
         <v>6.5263157894736841</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -37766,7 +38550,7 @@
         <v>7.8421052631578947</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -37786,7 +38570,7 @@
         <v>8.2105263157894743</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -37794,19 +38578,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="14">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D15" s="14">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E15" s="14">
-        <v>7.333333333333333</v>
+        <v>8.4</v>
       </c>
       <c r="F15" s="14">
-        <v>7.8947368421052628</v>
+        <v>8.7096774193548381</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="V19" s="15" t="s">
         <v>50</v>
       </c>
@@ -37822,25 +38606,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF0AF25-F735-4385-AB25-B2A068D2894B}">
   <dimension ref="A4:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -37875,7 +38659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -37907,10 +38691,10 @@
         <v>7.666666666666667</v>
       </c>
       <c r="K5" s="14">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -37942,10 +38726,10 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="K6" s="14">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -37977,45 +38761,80 @@
         <v>8.5</v>
       </c>
       <c r="K7" s="14">
-        <v>7.333333333333333</v>
+        <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14">
+        <v>7</v>
+      </c>
+      <c r="I8" s="14">
+        <v>8</v>
+      </c>
+      <c r="J8" s="14">
+        <v>9</v>
+      </c>
+      <c r="K8" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14">
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4.0555555555555554</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F8" s="14">
-        <v>4.6111111111111107</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5</v>
-      </c>
-      <c r="H8" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="I8" s="14">
-        <v>7.833333333333333</v>
-      </c>
-      <c r="J8" s="14">
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="K8" s="14">
-        <v>7.7777777777777777</v>
+      <c r="B9" s="14">
+        <v>2.7894736842105261</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3.6842105263157894</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4.3157894736842106</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4.6315789473684212</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6.5263157894736841</v>
+      </c>
+      <c r="I9" s="14">
+        <v>7.8421052631578947</v>
+      </c>
+      <c r="J9" s="14">
+        <v>8.2105263157894743</v>
+      </c>
+      <c r="K9" s="14">
+        <v>8.7096774193548381</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="V19" s="15"/>
     </row>
   </sheetData>
@@ -38030,26 +38849,26 @@
   <dimension ref="A4:V19"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -38060,51 +38879,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>4.166666666666667</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C5" s="14">
-        <v>4.3888888888888884</v>
+        <v>4.6666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>4.666666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="C6" s="14">
-        <v>4.3888888888888884</v>
+        <v>4.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>4.333333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="C7" s="14">
-        <v>4.3888888888888884</v>
+        <v>4.6666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="14">
-        <v>4.3888888888888893</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C8" s="14">
-        <v>4.3888888888888866</v>
+        <v>4.6666666666666679</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="V19" s="15" t="s">
         <v>50</v>
       </c>
@@ -38121,10 +38940,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38139,13 +38958,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.86328125" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -38159,7 +38978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -38175,7 +38994,7 @@
         <v>1.3743685418725535</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -38191,7 +39010,7 @@
         <v>1.6072751268321592</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -38207,7 +39026,7 @@
         <v>1.4624940645653537</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -38223,7 +39042,7 @@
         <v>1.7716909687891083</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -38239,7 +39058,7 @@
         <v>1.247219128924647</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -38255,7 +39074,7 @@
         <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -38271,7 +39090,7 @@
         <v>1.8856180831641267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -38287,7 +39106,7 @@
         <v>0.7453559924999299</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -38303,7 +39122,7 @@
         <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -38337,20 +39156,20 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -38364,7 +39183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -38378,7 +39197,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -38392,7 +39211,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -38400,7 +39219,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -38408,7 +39227,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -38416,7 +39235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -38424,7 +39243,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>

--- a/Excel/ExperimentComplexityResultsGraph_participants.xlsx
+++ b/Excel/ExperimentComplexityResultsGraph_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b6567a7514cabb0/FABIAN DATA/Kyushu 2021/Research/Paper2Complexity/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4376A-0536-4B4A-8440-1884492AEDE6}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="8_{2EF632F0-D155-48EE-87AC-F00663FB0D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914A5544-C18C-4EAA-A22B-539D329AE427}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
+    <workbookView xWindow="3600" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{4D4F7126-7CD8-49E4-A4C6-32DBF4DA3859}"/>
   </bookViews>
   <sheets>
     <sheet name="MainTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="13" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>Participant</t>
   </si>
@@ -515,6 +515,15 @@
   <si>
     <t xml:space="preserve"> Original Ranking</t>
   </si>
+  <si>
+    <t>AK1</t>
+  </si>
+  <si>
+    <t>b) Less than 1 year</t>
+  </si>
+  <si>
+    <t>b) Limited budget 限られた予算, c) Building constraints 建物の制約, d) Client preferences お客様のご希望</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -655,7 +664,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,9 +676,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,68 +698,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -920,6 +872,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -4399,13 +4363,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4</c:v>
@@ -5151,94 +5115,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8679,34 +8643,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8862,34 +8826,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.833333333333333</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9045,34 +9009,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.833333333333333</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14591,13 +14555,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -14722,13 +14686,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -14853,13 +14817,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -14984,13 +14948,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -15118,10 +15082,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
@@ -15246,13 +15210,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -15380,10 +15344,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.833333333333333</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
@@ -15508,13 +15472,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.833333333333333</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -15639,13 +15603,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -15770,13 +15734,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -19275,13 +19239,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19419,13 +19383,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6666666666666661</c:v>
+                  <c:v>4.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6666666666666661</c:v>
+                  <c:v>4.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6666666666666661</c:v>
+                  <c:v>4.7000000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19718,11 +19682,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -19743,7 +19707,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -19855,94 +19819,94 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="33"/>
                   <c:pt idx="0">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.18278835269862412</c:v>
+                    <c:v>0.17672500042984568</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.18278835269862412</c:v>
+                    <c:v>0.17672500042984568</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.39410667596286958</c:v>
+                    <c:v>0.39495215210909607</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.32822350518068616</c:v>
+                    <c:v>0.33031945462075724</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.32822350518068616</c:v>
+                    <c:v>0.33031945462075724</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.39410667596286958</c:v>
+                    <c:v>0.39495215210909607</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5.0797194974441552E-2</c:v>
+                    <c:v>5.0585455913722842E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.18278835269862412</c:v>
+                    <c:v>0.17672500042984568</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.18278835269862412</c:v>
+                    <c:v>0.17672500042984568</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.37994870545814363</c:v>
+                    <c:v>0.37769557929550768</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.11783726361034583</c:v>
+                    <c:v>0.11821558746248943</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.758182198027277E-2</c:v>
+                    <c:v>1.7312655113702405E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.37769557929550768</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.37994870545814363</c:v>
+                    <c:v>0.28888593905301296</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.29410554425988816</c:v>
+                    <c:v>0.37769557929550768</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.37994870545814363</c:v>
+                    <c:v>0.37769557929550768</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.37994870545814363</c:v>
+                    <c:v>0.37769557929550768</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.39410667596286958</c:v>
+                    <c:v>0.39495215210909607</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.39410667596286958</c:v>
+                    <c:v>0.39495215210909607</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.39410667596286958</c:v>
+                    <c:v>0.39495215210909607</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.21947882753590914</c:v>
+                    <c:v>0.22095859829284947</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.21947882753590914</c:v>
+                    <c:v>0.22095859829284947</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>0.21947882753590914</c:v>
+                    <c:v>0.22095859829284947</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>0.21947882753590914</c:v>
+                    <c:v>0.22095859829284947</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -20023,13 +19987,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
@@ -20068,94 +20032,94 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18278835269862412</c:v>
+                  <c:v>0.17672500042984568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18278835269862412</c:v>
+                  <c:v>0.17672500042984568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39410667596286958</c:v>
+                  <c:v>0.39495215210909607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32822350518068616</c:v>
+                  <c:v>0.33031945462075724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32822350518068616</c:v>
+                  <c:v>0.33031945462075724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39410667596286958</c:v>
+                  <c:v>0.39495215210909607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0797194974441552E-2</c:v>
+                  <c:v>5.0585455913722842E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18278835269862412</c:v>
+                  <c:v>0.17672500042984568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18278835269862412</c:v>
+                  <c:v>0.17672500042984568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37994870545814363</c:v>
+                  <c:v>0.37769557929550768</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11783726361034583</c:v>
+                  <c:v>0.11821558746248943</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.758182198027277E-2</c:v>
+                  <c:v>1.7312655113702405E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.37769557929550768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37994870545814363</c:v>
+                  <c:v>0.28888593905301296</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29410554425988816</c:v>
+                  <c:v>0.37769557929550768</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37994870545814363</c:v>
+                  <c:v>0.37769557929550768</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.37994870545814363</c:v>
+                  <c:v>0.37769557929550768</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39410667596286958</c:v>
+                  <c:v>0.39495215210909607</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.39410667596286958</c:v>
+                  <c:v>0.39495215210909607</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.39410667596286958</c:v>
+                  <c:v>0.39495215210909607</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21947882753590914</c:v>
+                  <c:v>0.22095859829284947</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.21947882753590914</c:v>
+                  <c:v>0.22095859829284947</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.21947882753590914</c:v>
+                  <c:v>0.22095859829284947</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.21947882753590914</c:v>
+                  <c:v>0.22095859829284947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20589,34 +20553,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>4.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>5.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>6.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20922,19 +20886,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.7612611437054218</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.6998542122237652</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.927248223318863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -20946,19 +20910,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.7612611437054218</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.6998542122237652</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.927248223318863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -20984,19 +20948,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>6.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21095,19 +21059,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5275252316519468</c:v>
+                  <c:v>1.4568627181693672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8856180831641267</c:v>
+                  <c:v>1.7612611437054218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7453559924999299</c:v>
+                  <c:v>0.6998542122237652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5275252316519468</c:v>
+                  <c:v>1.4568627181693672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8856180831641267</c:v>
+                  <c:v>1.927248223318863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21412,34 +21376,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.3743685418725535</c:v>
+                    <c:v>1.8070158058105026</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6072751268321592</c:v>
+                    <c:v>1.4982983545287878</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4624940645653537</c:v>
+                    <c:v>1.3850513878332369</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7716909687891083</c:v>
+                    <c:v>1.6659862556700857</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.247219128924647</c:v>
+                    <c:v>1.2453996981544782</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.7612611437054218</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.6998542122237652</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.927248223318863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -21451,34 +21415,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.3743685418725535</c:v>
+                    <c:v>1.8070158058105026</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6072751268321592</c:v>
+                    <c:v>1.4982983545287878</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4624940645653537</c:v>
+                    <c:v>1.3850513878332369</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7716909687891083</c:v>
+                    <c:v>1.6659862556700857</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.247219128924647</c:v>
+                    <c:v>1.2453996981544782</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.7612611437054218</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.6998542122237652</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.5275252316519468</c:v>
+                    <c:v>1.4568627181693672</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.8856180831641267</c:v>
+                    <c:v>1.927248223318863</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -21504,19 +21468,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>4.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>5.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21615,19 +21579,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3743685418725535</c:v>
+                  <c:v>1.8070158058105026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6072751268321592</c:v>
+                  <c:v>1.4982983545287878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4624940645653537</c:v>
+                  <c:v>1.3850513878332369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7716909687891083</c:v>
+                  <c:v>1.6659862556700857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.247219128924647</c:v>
+                  <c:v>1.2453996981544782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28005,6 +27969,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45217.840416898151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E3B8432B-442A-47AB-AE7C-7CA624C28305}">
   <cacheSource type="worksheet">
@@ -28167,7 +28135,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Drone Fabian" refreshedDate="45218.517501620372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FABIAN JARRIN" refreshedDate="45218.700553125003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{E0582D7C-A65B-42B0-A1D4-FFD2756A3D8F}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -28248,32 +28216,32 @@
     <cacheField name="Level Chosen" numFmtId="1">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
     </cacheField>
-    <cacheField name="LV1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    <cacheField name="LV1" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="LV2" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
     </cacheField>
     <cacheField name="LV3" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="LV4" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV5" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV6" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="LV7" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
     </cacheField>
     <cacheField name="LV8" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="LV9" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
     </cacheField>
     <cacheField name="LV10" numFmtId="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
@@ -28282,19 +28250,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.141999999999999" maxValue="100"/>
     </cacheField>
     <cacheField name="Mean" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.666666666666667" maxValue="4.666666666666667"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7" maxValue="4.7"/>
     </cacheField>
     <cacheField name="Standard Deviation" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1343747458109497" maxValue="2.1343747458109497"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1158134763411134" maxValue="2.1158134763411134"/>
     </cacheField>
     <cacheField name="Z-score" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.186432666440485" maxValue="2.4987801902176967"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.2213678344311019" maxValue="2.5049467069116678"/>
     </cacheField>
     <cacheField name="Probability" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.758182198027277E-2" maxValue="0.39410667596286958"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7312655113702405E-2" maxValue="0.39495215210909607"/>
     </cacheField>
     <cacheField name="Probability SD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.10877617408611068" maxValue="0.10877617408611068"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.11086910628672252" maxValue="0.11086910628672252"/>
     </cacheField>
     <cacheField name="Q1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -29684,11 +29652,11 @@
     <n v="9"/>
     <n v="10"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-2.186432666440485"/>
-    <n v="3.6546040283071353E-2"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-2.2213678344311019"/>
+    <n v="3.3837823586666038E-2"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -29726,11 +29694,11 @@
     <n v="2"/>
     <n v="6"/>
     <n v="20.012"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <s v="Mathematics"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -29768,11 +29736,11 @@
     <n v="4"/>
     <n v="2"/>
     <n v="20.012"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -29810,11 +29778,11 @@
     <n v="2"/>
     <n v="4"/>
     <n v="20.012"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-1.2493900951088486"/>
-    <n v="0.18278835269862412"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-1.2761049261625479"/>
+    <n v="0.17672500042984568"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -29852,11 +29820,11 @@
     <n v="9"/>
     <n v="8"/>
     <n v="100"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-1.2493900951088486"/>
-    <n v="0.18278835269862412"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-1.2761049261625479"/>
+    <n v="0.17672500042984568"/>
+    <n v="0.11086910628672252"/>
     <s v="Computer engineer"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -29894,11 +29862,11 @@
     <n v="9"/>
     <n v="10"/>
     <n v="50.497999999999998"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.15617376188860593"/>
-    <n v="0.39410667596286958"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.14178943624028301"/>
+    <n v="0.39495215210909607"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -29936,11 +29904,11 @@
     <n v="10"/>
     <n v="8"/>
     <n v="97.144000000000005"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.62469504755442407"/>
-    <n v="0.32822350518068616"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.61442089037455994"/>
+    <n v="0.33031945462075724"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -29978,11 +29946,11 @@
     <n v="8"/>
     <n v="10"/>
     <n v="26.998999999999999"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.62469504755442407"/>
-    <n v="0.32822350518068616"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.61442089037455994"/>
+    <n v="0.33031945462075724"/>
+    <n v="0.11086910628672252"/>
     <s v="Undergraduate Student"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -30020,11 +29988,11 @@
     <n v="10"/>
     <n v="10"/>
     <n v="18.141999999999999"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.15617376188860593"/>
-    <n v="0.39410667596286958"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.14178943624028301"/>
+    <n v="0.39495215210909607"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30062,11 +30030,11 @@
     <n v="10"/>
     <n v="8"/>
     <n v="95.465000000000003"/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="2.0302589045518786"/>
-    <n v="5.0797194974441552E-2"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="2.0323152527773907"/>
+    <n v="5.0585455913722842E-2"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30104,11 +30072,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <s v="Architect"/>
     <s v="c) 1-5 years"/>
     <s v="Bachelor's degree"/>
@@ -30146,11 +30114,11 @@
     <n v="10"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30188,11 +30156,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-1.2493900951088486"/>
-    <n v="0.18278835269862412"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-1.2761049261625479"/>
+    <n v="0.17672500042984568"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30230,11 +30198,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <s v="Marine biologist"/>
     <s v="a) None"/>
     <s v="Master's degree "/>
@@ -30272,11 +30240,11 @@
     <n v="8"/>
     <n v="10"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-1.2493900951088486"/>
-    <n v="0.18278835269862412"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-1.2761049261625479"/>
+    <n v="0.17672500042984568"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30314,11 +30282,11 @@
     <n v="10"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.31234752377721225"/>
-    <n v="0.37994870545814363"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.33084201789399392"/>
+    <n v="0.37769557929550768"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30356,11 +30324,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="1.5617376188860606"/>
-    <n v="0.11783726361034583"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="1.5596837986431138"/>
+    <n v="0.11821558746248943"/>
+    <n v="0.11086910628672252"/>
     <s v="Undergraduate Student"/>
     <s v="a) None"/>
     <s v="Bachelor's degree"/>
@@ -30398,11 +30366,11 @@
     <n v="9"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="2.4987801902176967"/>
-    <n v="1.758182198027277E-2"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="2.5049467069116678"/>
+    <n v="1.7312655113702405E-2"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30440,11 +30408,11 @@
     <n v="10"/>
     <n v="8"/>
     <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30467,26 +30435,26 @@
     <n v="19"/>
     <x v="19"/>
     <s v="Amira"/>
-    <m/>
+    <s v="AK1"/>
     <s v="Female"/>
     <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
     <n v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.33084201789399392"/>
+    <n v="0.37769557929550768"/>
+    <n v="0.11086910628672252"/>
     <s v="Architect"/>
     <m/>
     <m/>
@@ -30509,26 +30477,26 @@
     <n v="20"/>
     <x v="20"/>
     <s v="Amira"/>
-    <m/>
+    <s v="AK1"/>
     <s v="Female"/>
     <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
     <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.31234752377721225"/>
-    <n v="0.37994870545814363"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.80347347202827091"/>
+    <n v="0.28888593905301296"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30551,26 +30519,26 @@
     <n v="21"/>
     <x v="21"/>
     <s v="Amira"/>
-    <m/>
+    <s v="AK1"/>
     <s v="Female"/>
     <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
     <n v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.78086880944303039"/>
-    <n v="0.29410554425988816"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.33084201789399392"/>
+    <n v="0.37769557929550768"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30597,22 +30565,22 @@
     <s v="Male"/>
     <x v="1"/>
     <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.31234752377721225"/>
-    <n v="0.37994870545814363"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.33084201789399392"/>
+    <n v="0.37769557929550768"/>
+    <n v="0.11086910628672252"/>
     <s v="Mechanical Engineer"/>
     <m/>
     <m/>
@@ -30639,22 +30607,22 @@
     <s v="Male"/>
     <x v="2"/>
     <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="-0.31234752377721225"/>
-    <n v="0.37994870545814363"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="-0.33084201789399392"/>
+    <n v="0.37769557929550768"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30681,22 +30649,22 @@
     <s v="Male"/>
     <x v="3"/>
     <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.15617376188860593"/>
-    <n v="0.39410667596286958"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.14178943624028301"/>
+    <n v="0.39495215210909607"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30723,22 +30691,22 @@
     <s v="Male"/>
     <x v="1"/>
     <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.15617376188860593"/>
-    <n v="0.39410667596286958"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.14178943624028301"/>
+    <n v="0.39495215210909607"/>
+    <n v="0.11086910628672252"/>
     <s v="Undergraduate Student"/>
     <m/>
     <m/>
@@ -30765,22 +30733,22 @@
     <s v="Male"/>
     <x v="2"/>
     <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="0.15617376188860593"/>
-    <n v="0.39410667596286958"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="0.14178943624028301"/>
+    <n v="0.39495215210909607"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30807,22 +30775,22 @@
     <s v="Male"/>
     <x v="3"/>
     <n v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="1.0932163332202423"/>
-    <n v="0.21947882753590914"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="1.0870523445088369"/>
+    <n v="0.22095859829284947"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30849,22 +30817,22 @@
     <s v="Male"/>
     <x v="1"/>
     <n v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="1.0932163332202423"/>
-    <n v="0.21947882753590914"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="1.0870523445088369"/>
+    <n v="0.22095859829284947"/>
+    <n v="0.11086910628672252"/>
     <s v="Material Engineer"/>
     <m/>
     <m/>
@@ -30891,22 +30859,22 @@
     <s v="Male"/>
     <x v="2"/>
     <n v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="1.0932163332202423"/>
-    <n v="0.21947882753590914"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="1.0870523445088369"/>
+    <n v="0.22095859829284947"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30933,22 +30901,22 @@
     <s v="Male"/>
     <x v="3"/>
     <n v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
     <n v="10"/>
-    <m/>
-    <n v="4.666666666666667"/>
-    <n v="2.1343747458109497"/>
-    <n v="1.0932163332202423"/>
-    <n v="0.21947882753590914"/>
-    <n v="0.10877617408611068"/>
+    <n v="9"/>
+    <n v="8"/>
+    <m/>
+    <n v="4.7"/>
+    <n v="2.1158134763411134"/>
+    <n v="1.0870523445088369"/>
+    <n v="0.22095859829284947"/>
+    <n v="0.11086910628672252"/>
     <m/>
     <m/>
     <m/>
@@ -30971,7 +30939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A1CE35-3B4E-4D82-BF67-7AA81946E18E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="A4:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -31570,7 +31538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="44">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F544471D-B6B6-4DFD-AF52-1DA97EC39C75}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Complexity level" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="44">
   <location ref="A4:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -31690,7 +31658,7 @@
     <dataField name=" LV10" fld="16" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="26">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="9" selected="0">
@@ -31708,7 +31676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32465,7 +32433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C21E47F9-D9BE-493D-90AF-D71BE98A9DFD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
   <location ref="A4:K9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -32585,7 +32553,7 @@
     <dataField name=" LV10" fld="16" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -33414,7 +33382,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D244CBA1-3087-4439-BC1A-8A26502A57CE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A4:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -33499,7 +33467,7 @@
     <dataField name=" Mean" fld="18" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="23">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -33511,7 +33479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33520,7 +33488,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -34787,7 +34755,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN32" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}" name="Table1" displayName="Table1" ref="A1:AN32" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:AN32" xr:uid="{4AEAD8F8-CC0E-48BA-996B-F34B780D0F9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN33">
     <sortCondition ref="A1:A33"/>
@@ -34799,52 +34767,52 @@
     <tableColumn id="5" xr3:uid="{609E5D5B-A0EA-4531-B592-77507CEBE1C8}" name="Code"/>
     <tableColumn id="10" xr3:uid="{64771C3E-7E16-45EF-A2EE-D25D6C2AE74A}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{62236BB4-55BB-4C73-B959-4C284985000F}" name="Patern"/>
-    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="58"/>
-    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="57"/>
-    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="56"/>
-    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="53"/>
-    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="52"/>
-    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="51"/>
-    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="50"/>
-    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{FD4330AA-8CA2-4FAE-A6A6-858D8082DF46}" name="Level Chosen" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{1066692D-1C2C-4080-BA58-8C1BAF83E654}" name="LV1" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{8ADD5CA9-9CB7-4AA7-925D-A1E6F28A3EDD}" name="LV2" dataDxfId="39"/>
+    <tableColumn id="35" xr3:uid="{A3934A66-5422-462E-969F-A830EE533FCC}" name="LV3" dataDxfId="38"/>
+    <tableColumn id="34" xr3:uid="{FC8840EA-741E-466E-B647-7A9327980039}" name="LV4" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{2E0320C3-B4F2-4035-8731-6BBB5203730B}" name="LV5" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{D3F416A3-C5B1-40A4-8645-082996A0786E}" name="LV6" dataDxfId="35"/>
+    <tableColumn id="39" xr3:uid="{2AEAE83E-516F-4F75-80B5-55204FCAD2BC}" name="LV7" dataDxfId="34"/>
+    <tableColumn id="38" xr3:uid="{C8D75F88-E9E1-41F1-A1B9-2CBBD9969697}" name="LV8" dataDxfId="33"/>
+    <tableColumn id="37" xr3:uid="{A35E7F78-B484-4CD5-9E6C-11A7BDD71F3F}" name="LV9" dataDxfId="32"/>
+    <tableColumn id="40" xr3:uid="{BBB38209-EC67-4A21-BB96-C3AE177A2B9A}" name="LV10" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{FFE92603-55FA-4319-A030-052060CCB6FF}" name="Improvement (%)" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{A0043E1B-9F30-4289-A83B-3532079F9675}" name="Mean" dataDxfId="29">
       <calculatedColumnFormula>AVERAGE(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="46">
+    <tableColumn id="12" xr3:uid="{7E3498C4-E902-477A-8E25-383381324BA8}" name="Standard Deviation" dataDxfId="28">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Level Chosen])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="45">
+    <tableColumn id="13" xr3:uid="{C177ADAC-A1D8-4890-ABD9-071854B36AAA}" name="Z-score" dataDxfId="27">
       <calculatedColumnFormula>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{25E55D02-3768-4B1F-8F52-59DF71FF8579}" name="Probability" dataCellStyle="Percent">
       <calculatedColumnFormula>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="44">
+    <tableColumn id="31" xr3:uid="{DF00E40E-15FC-4831-81B2-42670B42F90C}" name="Probability SD" dataDxfId="26">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Probability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="33"/>
-    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="31"/>
-    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="30"/>
-    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="29"/>
-    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{AB0E5DB0-4CDB-4699-94C9-24D8FA990E9C}" name="Q1" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{72F4079C-A213-4C48-989D-D7FC8B980638}" name="Q2" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{42D93BF4-F56B-4FB4-85B5-7321B5C8563E}" name="Q3" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{9AF0B243-08F4-4FEE-B90B-26A94594ECB2}" name="Q4" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{440BEB28-4ED1-4326-802B-9C0C44E8CE3A}" name="Q5" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{E5D57724-4045-4E12-9944-398162B5AA7C}" name="Q6" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{68FEA1B8-5A78-4604-A1F4-8A579DC75438}" name="Q7" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{59C6B532-E840-49AF-B11A-6F7C99B21B44}" name="Q8" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{2B8A96D3-5F95-41D8-BBFF-4E0CC422093E}" name="Q9" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{F616DD3F-2E77-4B3B-8AD8-921A9759962C}" name="Q10" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{D97AD858-CBC9-4EBD-AAA8-8440B04657FA}" name="Q11" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{8D924469-6E0A-43B5-B3DE-0308394EB538}" name="Q12" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{B3276EC8-64C3-4224-ACD2-51806F626791}" name="Q13" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{FE4CD374-A6E7-451D-A568-280102086B84}" name="Q14" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{34B6AD55-2645-4326-8CD7-4DB729CCFAAC}" name="Q15" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{70ABD23C-8887-4D6E-AC15-752215BAA267}" name="Mean Q6" dataDxfId="10">
       <calculatedColumnFormula array="1">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="27">
+    <tableColumn id="30" xr3:uid="{FD151007-3BDD-45D6-A89B-8F1172A3F64D}" name="SD Q6" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table1[Q6])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34860,9 +34828,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FB5DF70B-33CC-4975-B87B-DA11AE649F1F}" name="N"/>
-    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E808C790-FF89-4662-9C08-56DDA7EF4099}" name="Question" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B0299FDB-99B1-41E2-A1AF-927B536AEA97}" name="Mean" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3D378563-A9AB-40AB-A4E4-27570B04A11D}" name="SD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35168,26 +35136,26 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="6" width="11.1328125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="20" customWidth="1"/>
-    <col min="9" max="17" width="11.140625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="39.5703125" customWidth="1"/>
-    <col min="28" max="28" width="60.85546875" customWidth="1"/>
-    <col min="39" max="40" width="9.140625" style="14"/>
+    <col min="8" max="8" width="15.86328125" style="19" customWidth="1"/>
+    <col min="9" max="17" width="11.1328125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="13.1328125" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" customWidth="1"/>
+    <col min="22" max="23" width="11.265625" customWidth="1"/>
+    <col min="24" max="24" width="39.59765625" customWidth="1"/>
+    <col min="28" max="28" width="60.86328125" customWidth="1"/>
+    <col min="39" max="40" width="9.1328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35209,34 +35177,34 @@
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>64</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -35309,21 +35277,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="22">
+      <c r="G2" s="28"/>
+      <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="18">
         <v>3</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="18">
         <v>4</v>
       </c>
       <c r="L2" s="18">
@@ -35344,38 +35312,38 @@
       <c r="Q2" s="18">
         <v>10</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="24"/>
+      <c r="S2" s="24">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="T2" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="T2" s="24">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
-      </c>
-      <c r="U2" s="26">
+        <v>2.1158134763411134</v>
+      </c>
+      <c r="U2" s="24">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-2.186432666440485</v>
-      </c>
-      <c r="V2" s="27">
+        <v>-2.2213678344311019</v>
+      </c>
+      <c r="V2" s="25">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>3.6546040283071353E-2</v>
+        <v>3.3837823586666038E-2</v>
       </c>
       <c r="W2" s="2">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
-      </c>
-      <c r="X2" s="28"/>
-      <c r="AM2" s="29" cm="1">
+        <v>0.11086910628672252</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="AM2" s="27" cm="1">
         <f t="array" ref="AM2">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN2" s="13">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -35394,7 +35362,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="28">
         <v>3</v>
       </c>
       <c r="H3" s="19">
@@ -35432,23 +35400,23 @@
       </c>
       <c r="S3" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T3" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U3" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V3" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W3">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>140</v>
@@ -35497,14 +35465,14 @@
       </c>
       <c r="AM3" s="12" cm="1">
         <f t="array" ref="AM3">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN3" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -35523,7 +35491,7 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
       <c r="H4" s="19">
@@ -35561,35 +35529,35 @@
       </c>
       <c r="S4" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T4" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U4" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V4" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W4">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X4" s="1"/>
       <c r="AM4" s="12" cm="1">
         <f t="array" ref="AM4">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN4" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -35608,7 +35576,7 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="28">
         <v>2</v>
       </c>
       <c r="H5" s="19">
@@ -35646,35 +35614,35 @@
       </c>
       <c r="S5" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T5" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U5" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.2493900951088486</v>
+        <v>-1.2761049261625479</v>
       </c>
       <c r="V5" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.18278835269862412</v>
+        <v>0.17672500042984568</v>
       </c>
       <c r="W5">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X5" s="1"/>
       <c r="AM5" s="12" cm="1">
         <f t="array" ref="AM5">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN5" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -35693,37 +35661,37 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="28">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>3</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>5</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>6</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>7</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>10</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <v>9</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <v>8</v>
       </c>
       <c r="R6" s="3">
@@ -35731,23 +35699,23 @@
       </c>
       <c r="S6" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T6" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U6" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.2493900951088486</v>
+        <v>-1.2761049261625479</v>
       </c>
       <c r="V6" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.18278835269862412</v>
+        <v>0.17672500042984568</v>
       </c>
       <c r="W6">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>98</v>
@@ -35796,14 +35764,14 @@
       </c>
       <c r="AM6" s="12" cm="1">
         <f t="array" ref="AM6">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN6" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -35822,37 +35790,37 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="28">
         <v>5</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>1</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>3</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>5</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>6</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>7</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>8</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>9</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>10</v>
       </c>
       <c r="R7" s="3">
@@ -35860,35 +35828,35 @@
       </c>
       <c r="S7" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T7" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U7" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.15617376188860593</v>
+        <v>0.14178943624028301</v>
       </c>
       <c r="V7" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.39410667596286958</v>
+        <v>0.39495215210909607</v>
       </c>
       <c r="W7">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X7" s="1"/>
       <c r="AM7" s="12" cm="1">
         <f t="array" ref="AM7">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN7" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -35907,37 +35875,37 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="28">
         <v>6</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>1</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>4</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>5</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>6</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>7</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>9</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>10</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>8</v>
       </c>
       <c r="R8" s="3">
@@ -35945,23 +35913,23 @@
       </c>
       <c r="S8" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T8" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U8" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.62469504755442407</v>
+        <v>0.61442089037455994</v>
       </c>
       <c r="V8" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.32822350518068616</v>
+        <v>0.33031945462075724</v>
       </c>
       <c r="W8">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -35980,14 +35948,14 @@
       <c r="AL8" s="10"/>
       <c r="AM8" s="12" cm="1">
         <f t="array" ref="AM8">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN8" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -36006,37 +35974,37 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="28">
         <v>6</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>3</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>2</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>1</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>4</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>6</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>7</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>9</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>8</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>10</v>
       </c>
       <c r="R9" s="3">
@@ -36044,23 +36012,23 @@
       </c>
       <c r="S9" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T9" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U9" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.62469504755442407</v>
+        <v>0.61442089037455994</v>
       </c>
       <c r="V9" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.32822350518068616</v>
+        <v>0.33031945462075724</v>
       </c>
       <c r="W9">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>141</v>
@@ -36109,14 +36077,14 @@
       </c>
       <c r="AM9" s="12" cm="1">
         <f t="array" ref="AM9">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN9" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -36135,37 +36103,37 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="29">
         <v>5</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>2</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>3</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>1</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>6</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>4</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>5</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>8</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>7</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>10</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <v>10</v>
       </c>
       <c r="R10" s="3">
@@ -36173,23 +36141,23 @@
       </c>
       <c r="S10" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T10" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U10" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.15617376188860593</v>
+        <v>0.14178943624028301</v>
       </c>
       <c r="V10" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.39410667596286958</v>
+        <v>0.39495215210909607</v>
       </c>
       <c r="W10">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="9"/>
@@ -36208,14 +36176,14 @@
       <c r="AL10" s="10"/>
       <c r="AM10" s="12" cm="1">
         <f t="array" ref="AM10">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN10" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -36234,37 +36202,37 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="28">
         <v>9</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>4</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>6</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>5</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>7</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>9</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="19">
         <v>10</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <v>8</v>
       </c>
       <c r="R11" s="3">
@@ -36272,35 +36240,35 @@
       </c>
       <c r="S11" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T11" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U11" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>2.0302589045518786</v>
+        <v>2.0323152527773907</v>
       </c>
       <c r="V11" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>5.0797194974441552E-2</v>
+        <v>5.0585455913722842E-2</v>
       </c>
       <c r="W11">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X11" s="1"/>
       <c r="AM11" s="12" cm="1">
         <f t="array" ref="AM11">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN11" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -36319,59 +36287,59 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="28">
         <v>3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>1</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <v>3</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>4</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <v>6</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>5</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="21">
         <v>7</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <v>10</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="21">
         <v>9</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="21">
         <v>8</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T12" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U12" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V12" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W12">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>31</v>
@@ -36420,14 +36388,14 @@
       </c>
       <c r="AM12" s="12" cm="1">
         <f t="array" ref="AM12">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN12" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -36446,71 +36414,71 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="28">
         <v>3</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>1</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <v>2</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="21">
         <v>3</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="21">
         <v>4</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="21">
         <v>6</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>5</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="21">
         <v>7</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <v>9</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="21">
         <v>10</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="21">
         <v>8</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T13" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U13" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V13" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W13">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X13" s="1"/>
       <c r="AM13" s="12" cm="1">
         <f t="array" ref="AM13">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN13" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -36529,71 +36497,71 @@
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>1</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>2</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="21">
         <v>3</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="21">
         <v>4</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="21">
         <v>7</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="21">
         <v>5</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="21">
         <v>6</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="21">
         <v>10</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="21">
         <v>9</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="21">
         <v>8</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T14" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U14" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.2493900951088486</v>
+        <v>-1.2761049261625479</v>
       </c>
       <c r="V14" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.18278835269862412</v>
+        <v>0.17672500042984568</v>
       </c>
       <c r="W14">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X14" s="1"/>
       <c r="AM14" s="12" cm="1">
         <f t="array" ref="AM14">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN14" s="12">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="39.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -36612,115 +36580,115 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="28">
         <v>3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>1</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>2</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="21">
         <v>3</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="21">
         <v>4</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="21">
         <v>6</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>5</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="21">
         <v>7</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="21">
         <v>10</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="21">
         <v>9</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="21">
         <v>8</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T15" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U15" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V15" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W15">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
-      </c>
-      <c r="X15" s="24" t="s">
+        <v>0.11086910628672252</v>
+      </c>
+      <c r="X15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="Y15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z15" s="24" t="s">
+      <c r="Z15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="24" t="s">
+      <c r="AA15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AB15" s="24" t="s">
+      <c r="AB15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AC15" s="23">
         <v>6</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AD15" s="23">
         <v>7</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AE15" s="23">
         <v>6</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AF15" s="23">
         <v>7</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AG15" s="23">
         <v>7</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AH15" s="23">
         <v>5</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AI15" s="23">
         <v>6</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="23">
         <v>7</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15" s="23">
         <v>5</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15" s="23">
         <v>7</v>
       </c>
       <c r="AM15" s="12" cm="1">
         <f t="array" ref="AM15">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN15" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -36739,71 +36707,71 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="29">
         <v>2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>2</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="21">
         <v>3</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <v>4</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="21">
         <v>6</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="21">
         <v>5</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="21">
         <v>7</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="21">
         <v>9</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="21">
         <v>8</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="21">
         <v>10</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T16" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U16" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-1.2493900951088486</v>
+        <v>-1.2761049261625479</v>
       </c>
       <c r="V16" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.18278835269862412</v>
+        <v>0.17672500042984568</v>
       </c>
       <c r="W16">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X16" s="1"/>
       <c r="AM16" s="12" cm="1">
         <f t="array" ref="AM16">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN16" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -36822,71 +36790,71 @@
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="28">
         <v>4</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>1</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>2</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="21">
         <v>3</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <v>4</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="21">
         <v>5</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>6</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="21">
         <v>7</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="21">
         <v>9</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="21">
         <v>10</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="21">
         <v>8</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T17" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U17" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.31234752377721225</v>
+        <v>-0.33084201789399392</v>
       </c>
       <c r="V17" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.37994870545814363</v>
+        <v>0.37769557929550768</v>
       </c>
       <c r="W17">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X17" s="1"/>
       <c r="AM17" s="12" cm="1">
         <f t="array" ref="AM17">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN17" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -36905,59 +36873,59 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="28">
         <v>8</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>2</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="21">
         <v>3</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>5</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="21">
         <v>6</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="21">
         <v>4</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="21">
         <v>7</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="21">
         <v>10</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="21">
         <v>9</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="21">
         <v>8</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T18" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U18" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.5617376188860606</v>
+        <v>1.5596837986431138</v>
       </c>
       <c r="V18" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.11783726361034583</v>
+        <v>0.11821558746248943</v>
       </c>
       <c r="W18">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>141</v>
@@ -37006,14 +36974,14 @@
       </c>
       <c r="AM18" s="12" cm="1">
         <f t="array" ref="AM18">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN18" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37032,71 +37000,71 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="28">
         <v>10</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>4</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>5</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="21">
         <v>6</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>3</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="21">
         <v>2</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="21">
         <v>1</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <v>7</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <v>8</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="21">
         <v>9</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="21">
         <v>8</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T19" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U19" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>2.4987801902176967</v>
+        <v>2.5049467069116678</v>
       </c>
       <c r="V19" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>1.758182198027277E-2</v>
+        <v>1.7312655113702405E-2</v>
       </c>
       <c r="W19">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X19" s="1"/>
       <c r="AM19" s="12" cm="1">
         <f t="array" ref="AM19">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN19" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37115,71 +37083,71 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="28">
         <v>3</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>5</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>6</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="21">
         <v>4</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>7</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="21">
         <v>3</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="21">
         <v>1</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="21">
         <v>2</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="21">
         <v>9</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="21">
         <v>10</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="21">
         <v>8</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T20" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U20" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V20" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W20">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X20" s="1"/>
       <c r="AM20" s="12" cm="1">
         <f t="array" ref="AM20">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN20" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="39" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -37189,60 +37157,124 @@
       <c r="C21" t="s">
         <v>113</v>
       </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
+        <v>4</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21">
         <v>3</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18">
+      <c r="K21" s="21">
+        <v>4</v>
+      </c>
+      <c r="L21" s="21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="21">
+        <v>7</v>
+      </c>
+      <c r="O21" s="21">
         <v>10</v>
+      </c>
+      <c r="P21" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>8</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T21" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U21" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.33084201789399392</v>
       </c>
       <c r="V21" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.37769557929550768</v>
       </c>
       <c r="W21">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
-      </c>
-      <c r="X21" s="1" t="s">
+        <v>0.11086910628672252</v>
+      </c>
+      <c r="X21" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>4</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>2</v>
       </c>
       <c r="AM21" s="12" cm="1">
         <f t="array" ref="AM21">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN21" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -37252,58 +37284,80 @@
       <c r="C22" t="s">
         <v>113</v>
       </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="28">
+        <v>3</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <v>2</v>
+      </c>
+      <c r="J22" s="21">
+        <v>3</v>
+      </c>
+      <c r="K22" s="21">
         <v>4</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18">
+      <c r="L22" s="21">
+        <v>5</v>
+      </c>
+      <c r="M22" s="21">
+        <v>6</v>
+      </c>
+      <c r="N22" s="21">
+        <v>7</v>
+      </c>
+      <c r="O22" s="21">
         <v>10</v>
+      </c>
+      <c r="P22" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>8</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T22" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U22" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.31234752377721225</v>
+        <v>-0.80347347202827091</v>
       </c>
       <c r="V22" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.37994870545814363</v>
+        <v>0.28888593905301296</v>
       </c>
       <c r="W22">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X22" s="1"/>
       <c r="AM22" s="12" cm="1">
         <f t="array" ref="AM22">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN22" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -37313,58 +37367,80 @@
       <c r="C23" t="s">
         <v>113</v>
       </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="28">
+        <v>4</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>2</v>
+      </c>
+      <c r="J23" s="21">
         <v>3</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18">
+      <c r="K23" s="21">
+        <v>4</v>
+      </c>
+      <c r="L23" s="21">
+        <v>5</v>
+      </c>
+      <c r="M23" s="21">
+        <v>6</v>
+      </c>
+      <c r="N23" s="21">
+        <v>7</v>
+      </c>
+      <c r="O23" s="21">
         <v>10</v>
+      </c>
+      <c r="P23" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>8</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T23" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U23" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.78086880944303039</v>
+        <v>-0.33084201789399392</v>
       </c>
       <c r="V23" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.29410554425988816</v>
+        <v>0.37769557929550768</v>
       </c>
       <c r="W23">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X23" s="1"/>
       <c r="AM23" s="12" cm="1">
         <f t="array" ref="AM23">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN23" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -37380,54 +37456,73 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>4</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18">
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
+        <v>2</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3</v>
+      </c>
+      <c r="K24" s="17">
+        <v>4</v>
+      </c>
+      <c r="L24" s="17">
+        <v>5</v>
+      </c>
+      <c r="M24" s="17">
+        <v>6</v>
+      </c>
+      <c r="N24" s="17">
+        <v>7</v>
+      </c>
+      <c r="O24" s="17">
         <v>10</v>
+      </c>
+      <c r="P24" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>8</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T24" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U24" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.31234752377721225</v>
+        <v>-0.33084201789399392</v>
       </c>
       <c r="V24" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.37994870545814363</v>
+        <v>0.37769557929550768</v>
       </c>
       <c r="W24">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AM24" s="12" cm="1">
         <f t="array" ref="AM24">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN24" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -37443,52 +37538,71 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>4</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18">
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
+        <v>2</v>
+      </c>
+      <c r="J25" s="17">
+        <v>3</v>
+      </c>
+      <c r="K25" s="17">
+        <v>4</v>
+      </c>
+      <c r="L25" s="17">
+        <v>5</v>
+      </c>
+      <c r="M25" s="17">
+        <v>6</v>
+      </c>
+      <c r="N25" s="17">
+        <v>7</v>
+      </c>
+      <c r="O25" s="17">
         <v>10</v>
+      </c>
+      <c r="P25" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>8</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T25" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U25" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>-0.31234752377721225</v>
+        <v>-0.33084201789399392</v>
       </c>
       <c r="V25" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.37994870545814363</v>
+        <v>0.37769557929550768</v>
       </c>
       <c r="W25">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X25" s="1"/>
       <c r="AM25" s="12" cm="1">
         <f t="array" ref="AM25">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN25" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -37504,52 +37618,71 @@
       <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>5</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18">
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <v>2</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3</v>
+      </c>
+      <c r="K26" s="17">
+        <v>4</v>
+      </c>
+      <c r="L26" s="17">
+        <v>5</v>
+      </c>
+      <c r="M26" s="17">
+        <v>6</v>
+      </c>
+      <c r="N26" s="17">
+        <v>7</v>
+      </c>
+      <c r="O26" s="17">
         <v>10</v>
+      </c>
+      <c r="P26" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>8</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T26" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U26" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.15617376188860593</v>
+        <v>0.14178943624028301</v>
       </c>
       <c r="V26" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.39410667596286958</v>
+        <v>0.39495215210909607</v>
       </c>
       <c r="W26">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X26" s="1"/>
       <c r="AM26" s="12" cm="1">
         <f t="array" ref="AM26">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN26" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -37565,54 +37698,73 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>5</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18">
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2</v>
+      </c>
+      <c r="J27" s="17">
+        <v>3</v>
+      </c>
+      <c r="K27" s="17">
+        <v>4</v>
+      </c>
+      <c r="L27" s="17">
+        <v>5</v>
+      </c>
+      <c r="M27" s="17">
+        <v>6</v>
+      </c>
+      <c r="N27" s="17">
+        <v>7</v>
+      </c>
+      <c r="O27" s="17">
         <v>10</v>
+      </c>
+      <c r="P27" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>8</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T27" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U27" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.15617376188860593</v>
+        <v>0.14178943624028301</v>
       </c>
       <c r="V27" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.39410667596286958</v>
+        <v>0.39495215210909607</v>
       </c>
       <c r="W27">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AM27" s="12" cm="1">
         <f t="array" ref="AM27">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN27" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -37628,52 +37780,71 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>5</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18">
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
+        <v>2</v>
+      </c>
+      <c r="J28" s="17">
+        <v>3</v>
+      </c>
+      <c r="K28" s="17">
+        <v>4</v>
+      </c>
+      <c r="L28" s="17">
+        <v>5</v>
+      </c>
+      <c r="M28" s="17">
+        <v>6</v>
+      </c>
+      <c r="N28" s="17">
+        <v>7</v>
+      </c>
+      <c r="O28" s="17">
         <v>10</v>
+      </c>
+      <c r="P28" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>8</v>
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T28" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U28" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>0.15617376188860593</v>
+        <v>0.14178943624028301</v>
       </c>
       <c r="V28" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.39410667596286958</v>
+        <v>0.39495215210909607</v>
       </c>
       <c r="W28">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X28" s="1"/>
       <c r="AM28" s="12" cm="1">
         <f t="array" ref="AM28">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN28" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -37689,52 +37860,71 @@
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <v>7</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18">
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
+        <v>2</v>
+      </c>
+      <c r="J29" s="17">
+        <v>3</v>
+      </c>
+      <c r="K29" s="17">
+        <v>4</v>
+      </c>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="17">
+        <v>6</v>
+      </c>
+      <c r="N29" s="17">
+        <v>7</v>
+      </c>
+      <c r="O29" s="17">
         <v>10</v>
+      </c>
+      <c r="P29" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>8</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T29" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U29" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.0932163332202423</v>
+        <v>1.0870523445088369</v>
       </c>
       <c r="V29" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.21947882753590914</v>
+        <v>0.22095859829284947</v>
       </c>
       <c r="W29">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X29" s="1"/>
       <c r="AM29" s="12" cm="1">
         <f t="array" ref="AM29">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN29" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -37750,54 +37940,73 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <v>7</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18">
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17">
+        <v>2</v>
+      </c>
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+      <c r="K30" s="17">
+        <v>4</v>
+      </c>
+      <c r="L30" s="17">
+        <v>5</v>
+      </c>
+      <c r="M30" s="17">
+        <v>6</v>
+      </c>
+      <c r="N30" s="17">
+        <v>7</v>
+      </c>
+      <c r="O30" s="17">
         <v>10</v>
+      </c>
+      <c r="P30" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>8</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T30" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U30" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.0932163332202423</v>
+        <v>1.0870523445088369</v>
       </c>
       <c r="V30" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.21947882753590914</v>
+        <v>0.22095859829284947</v>
       </c>
       <c r="W30">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AM30" s="12" cm="1">
         <f t="array" ref="AM30">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN30" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -37813,52 +38022,71 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <v>7</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18">
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
+        <v>2</v>
+      </c>
+      <c r="J31" s="17">
+        <v>3</v>
+      </c>
+      <c r="K31" s="17">
+        <v>4</v>
+      </c>
+      <c r="L31" s="17">
+        <v>5</v>
+      </c>
+      <c r="M31" s="17">
+        <v>6</v>
+      </c>
+      <c r="N31" s="17">
+        <v>7</v>
+      </c>
+      <c r="O31" s="17">
         <v>10</v>
+      </c>
+      <c r="P31" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>8</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T31" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U31" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.0932163332202423</v>
+        <v>1.0870523445088369</v>
       </c>
       <c r="V31" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.21947882753590914</v>
+        <v>0.22095859829284947</v>
       </c>
       <c r="W31">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X31" s="1"/>
       <c r="AM31" s="12" cm="1">
         <f t="array" ref="AM31">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN31" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -37874,63 +38102,82 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>7</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18">
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17">
+        <v>2</v>
+      </c>
+      <c r="J32" s="17">
+        <v>3</v>
+      </c>
+      <c r="K32" s="17">
+        <v>4</v>
+      </c>
+      <c r="L32" s="17">
+        <v>5</v>
+      </c>
+      <c r="M32" s="17">
+        <v>6</v>
+      </c>
+      <c r="N32" s="17">
+        <v>7</v>
+      </c>
+      <c r="O32" s="17">
         <v>10</v>
+      </c>
+      <c r="P32" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>8</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3">
         <f>AVERAGE(Table1[Level Chosen])</f>
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="T32" s="3">
         <f>_xlfn.STDEV.P(Table1[Level Chosen])</f>
-        <v>2.1343747458109497</v>
+        <v>2.1158134763411134</v>
       </c>
       <c r="U32" s="3">
         <f>(Table1[[#This Row],[Level Chosen]]-Table1[[#This Row],[Mean]])/Table1[[#This Row],[Standard Deviation]]</f>
-        <v>1.0932163332202423</v>
+        <v>1.0870523445088369</v>
       </c>
       <c r="V32" s="8">
         <f>_xlfn.NORM.DIST(Table1[[#This Row],[Z-score]],0,1,FALSE)</f>
-        <v>0.21947882753590914</v>
+        <v>0.22095859829284947</v>
       </c>
       <c r="W32">
         <f>_xlfn.STDEV.P(Table1[Probability])</f>
-        <v>0.10877617408611068</v>
+        <v>0.11086910628672252</v>
       </c>
       <c r="X32" s="1"/>
       <c r="AM32" s="12" cm="1">
         <f t="array" ref="AM32">AVERAGE(IF(Table1[Q6]&lt;&gt;"", Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AN32" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+    <row r="33" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -37952,27 +38199,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AFC022-F449-4E99-B675-6841F6ED2E88}">
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -37980,7 +38227,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -37991,346 +38238,346 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="V19" s="15"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="30">
-        <v>3</v>
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="30">
-        <v>4</v>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="30">
-        <v>3</v>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="30">
-        <v>140</v>
+      <c r="B35">
+        <v>141</v>
       </c>
       <c r="C35" s="3">
-        <v>4.6666666666666679</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -38345,32 +38592,33 @@
   <dimension ref="A4:V19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -38390,7 +38638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -38398,19 +38646,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>2.8333333333333335</v>
+        <v>2.1</v>
       </c>
       <c r="D6" s="14">
-        <v>2.8333333333333335</v>
+        <v>2.1</v>
       </c>
       <c r="E6" s="14">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F6" s="14">
-        <v>2.7894736842105261</v>
+        <v>2.096774193548387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -38418,19 +38666,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="14">
-        <v>3.3333333333333335</v>
+        <v>2.8</v>
       </c>
       <c r="D7" s="14">
-        <v>3.8333333333333335</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="14">
-        <v>4.166666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="F7" s="14">
-        <v>3.6842105263157894</v>
+        <v>3.032258064516129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -38438,19 +38686,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D8" s="14">
-        <v>4.333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="E8" s="14">
-        <v>3.8333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="14">
-        <v>4</v>
+        <v>3.6129032258064515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -38458,19 +38706,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="14">
-        <v>3.6666666666666665</v>
+        <v>3.8</v>
       </c>
       <c r="D9" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="E9" s="14">
         <v>4.5</v>
       </c>
-      <c r="E9" s="14">
-        <v>4.833333333333333</v>
-      </c>
       <c r="F9" s="14">
-        <v>4.3157894736842106</v>
+        <v>4.193548387096774</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -38481,16 +38729,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="14">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="14">
-        <v>4.833333333333333</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F10" s="14">
-        <v>4.6315789473684212</v>
+        <v>4.774193548387097</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -38498,19 +38746,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="14">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D11" s="14">
-        <v>4.833333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="E11" s="14">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="F11" s="14">
-        <v>5.0526315789473681</v>
+        <v>5.419354838709677</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -38521,16 +38769,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="14">
-        <v>6.833333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="E12" s="14">
-        <v>5.666666666666667</v>
+        <v>6.2</v>
       </c>
       <c r="F12" s="14">
-        <v>6.5263157894736841</v>
+        <v>6.709677419354839</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -38538,19 +38786,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="14">
-        <v>8.3333333333333339</v>
+        <v>9</v>
       </c>
       <c r="D13" s="14">
-        <v>7.333333333333333</v>
+        <v>8.4</v>
       </c>
       <c r="E13" s="14">
-        <v>7.833333333333333</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F13" s="14">
-        <v>7.8421052631578947</v>
+        <v>8.67741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -38558,19 +38806,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="14">
-        <v>7.666666666666667</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D14" s="14">
-        <v>8.3333333333333339</v>
+        <v>8.6</v>
       </c>
       <c r="E14" s="14">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F14" s="14">
-        <v>8.2105263157894743</v>
+        <v>8.5161290322580641</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -38578,19 +38826,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="14">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="E15" s="14">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="F15" s="14">
-        <v>8.7096774193548381</v>
+        <v>7.935483870967742</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15" t="s">
         <v>50</v>
       </c>
@@ -38607,24 +38855,24 @@
   <dimension ref="A4:V19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -38659,112 +38907,112 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>2.8333333333333335</v>
+        <v>2.1</v>
       </c>
       <c r="C5" s="14">
-        <v>3.3333333333333335</v>
+        <v>2.8</v>
       </c>
       <c r="D5" s="14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E5" s="14">
-        <v>3.6666666666666665</v>
+        <v>3.8</v>
       </c>
       <c r="F5" s="14">
         <v>5</v>
       </c>
       <c r="G5" s="14">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="H5" s="14">
         <v>7</v>
       </c>
       <c r="I5" s="14">
-        <v>8.3333333333333339</v>
+        <v>9</v>
       </c>
       <c r="J5" s="14">
-        <v>7.666666666666667</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K5" s="14">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>2.8333333333333335</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="14">
-        <v>3.8333333333333335</v>
+        <v>3.1</v>
       </c>
       <c r="D6" s="14">
-        <v>4.333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="E6" s="14">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F6" s="14">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="14">
-        <v>4.833333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="H6" s="14">
-        <v>6.833333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="I6" s="14">
-        <v>7.333333333333333</v>
+        <v>8.4</v>
       </c>
       <c r="J6" s="14">
-        <v>8.3333333333333339</v>
+        <v>8.6</v>
       </c>
       <c r="K6" s="14">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C7" s="14">
-        <v>4.166666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="D7" s="14">
-        <v>3.8333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="14">
-        <v>4.833333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="F7" s="14">
-        <v>4.833333333333333</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G7" s="14">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H7" s="14">
-        <v>5.666666666666667</v>
+        <v>6.2</v>
       </c>
       <c r="I7" s="14">
-        <v>7.833333333333333</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J7" s="14">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K7" s="14">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>144</v>
       </c>
@@ -38799,42 +39047,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="14">
-        <v>2.7894736842105261</v>
+        <v>2.096774193548387</v>
       </c>
       <c r="C9" s="14">
-        <v>3.6842105263157894</v>
+        <v>3.032258064516129</v>
       </c>
       <c r="D9" s="14">
-        <v>4</v>
+        <v>3.6129032258064515</v>
       </c>
       <c r="E9" s="14">
-        <v>4.3157894736842106</v>
+        <v>4.193548387096774</v>
       </c>
       <c r="F9" s="14">
-        <v>4.6315789473684212</v>
+        <v>4.774193548387097</v>
       </c>
       <c r="G9" s="14">
-        <v>5.0526315789473681</v>
+        <v>5.419354838709677</v>
       </c>
       <c r="H9" s="14">
-        <v>6.5263157894736841</v>
+        <v>6.709677419354839</v>
       </c>
       <c r="I9" s="14">
-        <v>7.8421052631578947</v>
+        <v>8.67741935483871</v>
       </c>
       <c r="J9" s="14">
-        <v>8.2105263157894743</v>
+        <v>8.5161290322580641</v>
       </c>
       <c r="K9" s="14">
-        <v>8.7096774193548381</v>
+        <v>7.935483870967742</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15"/>
     </row>
   </sheetData>
@@ -38852,23 +39100,23 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -38879,51 +39127,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C5" s="14">
-        <v>4.6666666666666661</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C6" s="14">
-        <v>4.6666666666666661</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C7" s="14">
-        <v>4.6666666666666661</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="14">
-        <v>4.666666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="C8" s="14">
-        <v>4.6666666666666679</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
-    <row r="19" spans="22:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:22" ht="18" x14ac:dyDescent="0.45">
       <c r="V19" s="15" t="s">
         <v>50</v>
       </c>
@@ -38940,10 +39188,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38954,17 +39202,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C0701-B297-43BE-9ECC-5A85FAD92B43}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -38978,7 +39226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>6</v>
       </c>
@@ -38987,14 +39235,14 @@
       </c>
       <c r="C2" s="14" cm="1">
         <f t="array" ref="C2">AVERAGE(IF(Table1[Q6]&lt;&gt;"",Table1[Q6]))</f>
-        <v>4.666666666666667</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="D2" s="14">
         <f>_xlfn.STDEV.P(Table1[Q6])</f>
-        <v>1.3743685418725535</v>
+        <v>1.8070158058105026</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>7</v>
       </c>
@@ -39003,14 +39251,14 @@
       </c>
       <c r="C3" s="14">
         <f>AVERAGE(Table1[Q7])</f>
-        <v>4.5</v>
+        <v>4.4285714285714288</v>
       </c>
       <c r="D3" s="14">
         <f>_xlfn.STDEV.P(Table1[Q7])</f>
-        <v>1.6072751268321592</v>
+        <v>1.4982983545287878</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>8</v>
       </c>
@@ -39019,14 +39267,14 @@
       </c>
       <c r="C4" s="14">
         <f>AVERAGE(Table1[Q8])</f>
-        <v>5.166666666666667</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="D4" s="14">
         <f>_xlfn.STDEV.P(Table1[Q8])</f>
-        <v>1.4624940645653537</v>
+        <v>1.3850513878332369</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9</v>
       </c>
@@ -39035,14 +39283,14 @@
       </c>
       <c r="C5" s="14">
         <f>AVERAGE(Table1[Q9])</f>
-        <v>3.8333333333333335</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="D5" s="14">
         <f>_xlfn.STDEV.P(Table1[Q9])</f>
-        <v>1.7716909687891083</v>
+        <v>1.6659862556700857</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -39051,14 +39299,14 @@
       </c>
       <c r="C6" s="14">
         <f>AVERAGE(Table1[Q10])</f>
-        <v>5.333333333333333</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="D6" s="14">
         <f>_xlfn.STDEV.P(Table1[Q10])</f>
-        <v>1.247219128924647</v>
+        <v>1.2453996981544782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>11</v>
       </c>
@@ -39067,14 +39315,14 @@
       </c>
       <c r="C7" s="14">
         <f>AVERAGE(Table1[Q11])</f>
-        <v>5</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="D7" s="14">
         <f>_xlfn.STDEV.P(Table1[Q11])</f>
-        <v>1.5275252316519468</v>
+        <v>1.4568627181693672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12</v>
       </c>
@@ -39083,14 +39331,14 @@
       </c>
       <c r="C8" s="14">
         <f>AVERAGE(Table1[Q12])</f>
-        <v>4.666666666666667</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="D8" s="14">
         <f>_xlfn.STDEV.P(Table1[Q12])</f>
-        <v>1.8856180831641267</v>
+        <v>1.7612611437054218</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>13</v>
       </c>
@@ -39099,14 +39347,14 @@
       </c>
       <c r="C9" s="14">
         <f>AVERAGE(Table1[Q13])</f>
-        <v>6.333333333333333</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="D9" s="14">
         <f>_xlfn.STDEV.P(Table1[Q13])</f>
-        <v>0.7453559924999299</v>
+        <v>0.6998542122237652</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>14</v>
       </c>
@@ -39115,14 +39363,14 @@
       </c>
       <c r="C10" s="14">
         <f>AVERAGE(Table1[Q14])</f>
-        <v>5</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="D10" s="14">
         <f>_xlfn.STDEV.P(Table1[Q14])</f>
-        <v>1.5275252316519468</v>
+        <v>1.4568627181693672</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>15</v>
       </c>
@@ -39131,11 +39379,11 @@
       </c>
       <c r="C11" s="14">
         <f>AVERAGE(Table1[Q15])</f>
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D11" s="14">
         <f>_xlfn.STDEV.P(Table1[Q15])</f>
-        <v>1.8856180831641267</v>
+        <v>1.927248223318863</v>
       </c>
     </row>
   </sheetData>
@@ -39156,20 +39404,20 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -39183,7 +39431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -39197,7 +39445,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -39211,7 +39459,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -39219,7 +39467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -39227,7 +39475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -39235,7 +39483,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -39243,7 +39491,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>143</v>
       </c>
